--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Ucard\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127C5F1C-E12E-4667-9F7D-3F58CA825D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A08DB19-9CE1-4003-B658-39456FB67390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="252" yWindow="780" windowWidth="12252" windowHeight="10620" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="長期 (原本)" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$H$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$H$323</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="520">
   <si>
     <t>銀行別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3014,13 +3014,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3063,13 +3063,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3112,13 +3112,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3161,13 +3161,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3210,13 +3210,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3259,13 +3259,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3308,7 +3308,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3352,7 +3352,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3396,7 +3396,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3440,7 +3440,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3484,7 +3484,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3528,7 +3528,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3572,7 +3572,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3616,7 +3616,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -3956,11 +3956,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
-  <dimension ref="A1:K359"/>
+  <dimension ref="A1:K358"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -4370,13 +4370,13 @@
         <v>213</v>
       </c>
       <c r="D22" s="4">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="E22" t="s">
         <v>142</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4384,19 +4384,16 @@
         <v>43</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D23" s="4">
-        <v>0.05</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" t="s">
-        <v>144</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4404,10 +4401,10 @@
         <v>43</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D24" s="4">
         <v>1.5E-3</v>
@@ -4421,16 +4418,16 @@
         <v>43</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" s="4">
-        <v>1.5E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="E25" t="s">
-        <v>398</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4447,7 +4444,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4464,7 +4461,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4481,7 +4478,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E28" t="s">
-        <v>156</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4498,7 +4495,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E29" t="s">
-        <v>403</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4515,7 +4512,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4532,7 +4529,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4549,7 +4546,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4566,7 +4563,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4577,13 +4574,16 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="D34" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>398</v>
+      </c>
+      <c r="F34" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4591,19 +4591,16 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D35" s="4">
-        <v>4.4999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E35" t="s">
         <v>398</v>
-      </c>
-      <c r="F35" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4611,13 +4608,13 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D36" s="4">
-        <v>1.5E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E36" t="s">
         <v>398</v>
@@ -4634,10 +4631,13 @@
         <v>240</v>
       </c>
       <c r="D37" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E37" t="s">
-        <v>398</v>
+        <v>507</v>
+      </c>
+      <c r="F37" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4651,13 +4651,13 @@
         <v>240</v>
       </c>
       <c r="D38" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" t="s">
         <v>507</v>
-      </c>
-      <c r="F38" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4674,10 +4674,10 @@
         <v>0.03</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>507</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4688,16 +4688,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D40" s="4">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
-      </c>
-      <c r="F40" t="s">
-        <v>167</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4711,10 +4708,10 @@
         <v>241</v>
       </c>
       <c r="D41" s="4">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="E41" t="s">
-        <v>398</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4725,13 +4722,13 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="D42" s="4">
-        <v>0.03</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E42" t="s">
-        <v>168</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4742,7 +4739,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D43" s="4">
         <v>1.5E-3</v>
@@ -4756,10 +4753,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>170</v>
+        <v>13</v>
       </c>
       <c r="D44" s="4">
         <v>1.5E-3</v>
@@ -4773,10 +4770,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="D45" s="4">
         <v>1.5E-3</v>
@@ -4793,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D46" s="4">
         <v>1.5E-3</v>
@@ -4810,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D47" s="4">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E47" t="s">
-        <v>398</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4827,13 +4824,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>178</v>
+        <v>246</v>
       </c>
       <c r="D48" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E48" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4841,7 +4838,7 @@
         <v>43</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>246</v>
@@ -4858,16 +4855,16 @@
         <v>43</v>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>246</v>
+        <v>390</v>
       </c>
       <c r="D50" s="4">
-        <v>1.5E-3</v>
+        <v>0.1</v>
       </c>
       <c r="E50" t="s">
-        <v>398</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4875,16 +4872,19 @@
         <v>43</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>390</v>
+        <v>249</v>
       </c>
       <c r="D51" s="4">
-        <v>0.1</v>
+        <v>1.5E-3</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>398</v>
+      </c>
+      <c r="G51" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4892,7 +4892,7 @@
         <v>43</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>249</v>
@@ -4909,23 +4909,25 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>249</v>
+        <v>470</v>
       </c>
       <c r="D53" s="4">
-        <v>1.5E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E53" t="s">
         <v>398</v>
       </c>
-      <c r="G53" t="s">
-        <v>180</v>
-      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
@@ -4938,18 +4940,18 @@
         <v>470</v>
       </c>
       <c r="D54" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>398</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="19"/>
+        <v>0.03</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G54" s="22"/>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="J54" s="19"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" ht="113.4">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
@@ -4962,16 +4964,12 @@
       <c r="D55" s="4">
         <v>0.03</v>
       </c>
-      <c r="E55" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" ht="113.4">
+      <c r="E55" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="G55" s="21"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>7</v>
       </c>
@@ -4979,17 +4977,18 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D56" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>519</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>398</v>
+      </c>
+      <c r="F56" s="20"/>
       <c r="G56" s="21"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" ht="409.6">
       <c r="A57" s="1" t="s">
         <v>7</v>
       </c>
@@ -5000,15 +4999,14 @@
         <v>480</v>
       </c>
       <c r="D57" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>398</v>
-      </c>
-      <c r="F57" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>481</v>
+      </c>
       <c r="G57" s="21"/>
     </row>
-    <row r="58" spans="1:11" ht="409.6">
+    <row r="58" spans="1:11" ht="97.2">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -5022,11 +5020,11 @@
         <v>0.03</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G58" s="21"/>
     </row>
-    <row r="59" spans="1:11" ht="97.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -5039,12 +5037,12 @@
       <c r="D59" s="4">
         <v>0.03</v>
       </c>
-      <c r="E59" s="20" t="s">
-        <v>483</v>
+      <c r="E59" t="s">
+        <v>256</v>
       </c>
       <c r="G59" s="21"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" ht="113.4">
       <c r="A60" s="1" t="s">
         <v>7</v>
       </c>
@@ -5057,12 +5055,12 @@
       <c r="D60" s="4">
         <v>0.03</v>
       </c>
-      <c r="E60" t="s">
-        <v>256</v>
+      <c r="E60" s="20" t="s">
+        <v>484</v>
       </c>
       <c r="G60" s="21"/>
     </row>
-    <row r="61" spans="1:11" ht="113.4">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>7</v>
       </c>
@@ -5070,17 +5068,18 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D61" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>484</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>398</v>
+      </c>
+      <c r="F61" s="20"/>
       <c r="G61" s="21"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" ht="178.2">
       <c r="A62" s="1" t="s">
         <v>7</v>
       </c>
@@ -5091,15 +5090,14 @@
         <v>485</v>
       </c>
       <c r="D62" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E62" t="s">
-        <v>398</v>
-      </c>
-      <c r="F62" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>486</v>
+      </c>
       <c r="G62" s="21"/>
     </row>
-    <row r="63" spans="1:11" ht="178.2">
+    <row r="63" spans="1:11" ht="162">
       <c r="A63" s="1" t="s">
         <v>7</v>
       </c>
@@ -5112,12 +5110,12 @@
       <c r="D63" s="4">
         <v>0.03</v>
       </c>
-      <c r="E63" s="26" t="s">
-        <v>486</v>
+      <c r="E63" s="20" t="s">
+        <v>518</v>
       </c>
       <c r="G63" s="21"/>
     </row>
-    <row r="64" spans="1:11" ht="162">
+    <row r="64" spans="1:11" ht="226.8">
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
@@ -5131,11 +5129,11 @@
         <v>0.03</v>
       </c>
       <c r="E64" s="20" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="G64" s="21"/>
     </row>
-    <row r="65" spans="1:7" ht="226.8">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>7</v>
       </c>
@@ -5143,14 +5141,15 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D65" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>489</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>398</v>
+      </c>
+      <c r="F65" s="20"/>
       <c r="G65" s="21"/>
     </row>
     <row r="66" spans="1:7">
@@ -5164,12 +5163,11 @@
         <v>490</v>
       </c>
       <c r="D66" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>398</v>
-      </c>
-      <c r="F66" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>491</v>
+      </c>
       <c r="G66" s="21"/>
     </row>
     <row r="67" spans="1:7">
@@ -5185,12 +5183,12 @@
       <c r="D67" s="4">
         <v>0.03</v>
       </c>
-      <c r="E67" s="20" t="s">
-        <v>491</v>
+      <c r="E67" t="s">
+        <v>492</v>
       </c>
       <c r="G67" s="21"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" ht="32.4">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
@@ -5203,12 +5201,12 @@
       <c r="D68" s="4">
         <v>0.03</v>
       </c>
-      <c r="E68" t="s">
-        <v>492</v>
+      <c r="E68" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="G68" s="21"/>
     </row>
-    <row r="69" spans="1:7" ht="32.4">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>7</v>
       </c>
@@ -5221,8 +5219,8 @@
       <c r="D69" s="4">
         <v>0.03</v>
       </c>
-      <c r="E69" s="20" t="s">
-        <v>498</v>
+      <c r="E69" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="G69" s="21"/>
     </row>
@@ -5239,8 +5237,8 @@
       <c r="D70" s="4">
         <v>0.03</v>
       </c>
-      <c r="E70" s="15" t="s">
-        <v>493</v>
+      <c r="E70" t="s">
+        <v>494</v>
       </c>
       <c r="G70" s="21"/>
     </row>
@@ -5257,8 +5255,8 @@
       <c r="D71" s="4">
         <v>0.03</v>
       </c>
-      <c r="E71" t="s">
-        <v>494</v>
+      <c r="E71" s="15" t="s">
+        <v>495</v>
       </c>
       <c r="G71" s="21"/>
     </row>
@@ -5275,8 +5273,8 @@
       <c r="D72" s="4">
         <v>0.03</v>
       </c>
-      <c r="E72" s="15" t="s">
-        <v>495</v>
+      <c r="E72" t="s">
+        <v>482</v>
       </c>
       <c r="G72" s="21"/>
     </row>
@@ -5294,7 +5292,7 @@
         <v>0.03</v>
       </c>
       <c r="E73" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G73" s="21"/>
     </row>
@@ -5312,7 +5310,7 @@
         <v>0.03</v>
       </c>
       <c r="E74" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G74" s="21"/>
     </row>
@@ -5330,7 +5328,7 @@
         <v>0.03</v>
       </c>
       <c r="E75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G75" s="21"/>
     </row>
@@ -5342,15 +5340,14 @@
         <v>0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D76" s="4">
-        <v>0.03</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E76" t="s">
-        <v>499</v>
-      </c>
-      <c r="G76" s="21"/>
+        <v>398</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
@@ -5363,10 +5360,13 @@
         <v>500</v>
       </c>
       <c r="D77" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E77" t="s">
-        <v>398</v>
+        <v>501</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5383,13 +5383,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E78" t="s">
-        <v>501</v>
-      </c>
-      <c r="F78" s="21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>487</v>
+      </c>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="1:7" ht="194.4">
       <c r="A79" s="1" t="s">
         <v>7</v>
       </c>
@@ -5400,14 +5398,14 @@
         <v>500</v>
       </c>
       <c r="D79" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E79" t="s">
-        <v>487</v>
+        <v>0.1</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>503</v>
       </c>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" ht="194.4">
+    <row r="80" spans="1:7" ht="48.6">
       <c r="A80" s="1" t="s">
         <v>7</v>
       </c>
@@ -5421,11 +5419,11 @@
         <v>0.1</v>
       </c>
       <c r="E80" s="20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G80" s="15"/>
     </row>
-    <row r="81" spans="1:11" ht="48.6">
+    <row r="81" spans="1:11" ht="64.8">
       <c r="A81" s="1" t="s">
         <v>7</v>
       </c>
@@ -5439,27 +5437,31 @@
         <v>0.1</v>
       </c>
       <c r="E81" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G81" s="15"/>
     </row>
-    <row r="82" spans="1:11" ht="64.8">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="D82" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E82" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="G82" s="15"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>398</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
@@ -5472,18 +5474,18 @@
         <v>470</v>
       </c>
       <c r="D83" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E83" t="s">
-        <v>398</v>
-      </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="19"/>
+        <v>0.03</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G83" s="22"/>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
-      <c r="J83" s="21"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="J83" s="19"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:11" ht="113.4">
       <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
@@ -5496,16 +5498,12 @@
       <c r="D84" s="4">
         <v>0.03</v>
       </c>
-      <c r="E84" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="21"/>
-    </row>
-    <row r="85" spans="1:11" ht="113.4">
+      <c r="E84" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -5513,17 +5511,18 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D85" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>519</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85" s="20"/>
       <c r="G85" s="21"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" ht="409.6">
       <c r="A86" s="1" t="s">
         <v>7</v>
       </c>
@@ -5534,15 +5533,14 @@
         <v>480</v>
       </c>
       <c r="D86" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E86" t="s">
-        <v>398</v>
-      </c>
-      <c r="F86" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>481</v>
+      </c>
       <c r="G86" s="21"/>
     </row>
-    <row r="87" spans="1:11" ht="409.6">
+    <row r="87" spans="1:11" ht="97.2">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -5556,11 +5554,11 @@
         <v>0.03</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G87" s="21"/>
     </row>
-    <row r="88" spans="1:11" ht="97.2">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -5573,12 +5571,12 @@
       <c r="D88" s="4">
         <v>0.03</v>
       </c>
-      <c r="E88" s="20" t="s">
-        <v>483</v>
+      <c r="E88" t="s">
+        <v>256</v>
       </c>
       <c r="G88" s="21"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="113.4">
       <c r="A89" s="1" t="s">
         <v>7</v>
       </c>
@@ -5591,12 +5589,12 @@
       <c r="D89" s="4">
         <v>0.03</v>
       </c>
-      <c r="E89" t="s">
-        <v>256</v>
+      <c r="E89" s="20" t="s">
+        <v>484</v>
       </c>
       <c r="G89" s="21"/>
     </row>
-    <row r="90" spans="1:11" ht="113.4">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>7</v>
       </c>
@@ -5604,17 +5602,18 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D90" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>484</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>398</v>
+      </c>
+      <c r="F90" s="20"/>
       <c r="G90" s="21"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" ht="178.2">
       <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
@@ -5625,15 +5624,14 @@
         <v>485</v>
       </c>
       <c r="D91" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>398</v>
-      </c>
-      <c r="F91" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E91" s="26" t="s">
+        <v>486</v>
+      </c>
       <c r="G91" s="21"/>
     </row>
-    <row r="92" spans="1:11" ht="178.2">
+    <row r="92" spans="1:11" ht="162">
       <c r="A92" s="1" t="s">
         <v>7</v>
       </c>
@@ -5646,12 +5644,12 @@
       <c r="D92" s="4">
         <v>0.03</v>
       </c>
-      <c r="E92" s="26" t="s">
-        <v>486</v>
+      <c r="E92" s="20" t="s">
+        <v>488</v>
       </c>
       <c r="G92" s="21"/>
     </row>
-    <row r="93" spans="1:11" ht="162">
+    <row r="93" spans="1:11" ht="226.8">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -5665,11 +5663,11 @@
         <v>0.03</v>
       </c>
       <c r="E93" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G93" s="21"/>
     </row>
-    <row r="94" spans="1:11" ht="226.8">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -5677,14 +5675,15 @@
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D94" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>489</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>398</v>
+      </c>
+      <c r="F94" s="20"/>
       <c r="G94" s="21"/>
     </row>
     <row r="95" spans="1:11">
@@ -5698,12 +5697,11 @@
         <v>490</v>
       </c>
       <c r="D95" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E95" t="s">
-        <v>398</v>
-      </c>
-      <c r="F95" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>491</v>
+      </c>
       <c r="G95" s="21"/>
     </row>
     <row r="96" spans="1:11">
@@ -5719,12 +5717,12 @@
       <c r="D96" s="4">
         <v>0.03</v>
       </c>
-      <c r="E96" s="20" t="s">
-        <v>491</v>
+      <c r="E96" t="s">
+        <v>492</v>
       </c>
       <c r="G96" s="21"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:11" ht="32.4">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -5737,12 +5735,12 @@
       <c r="D97" s="4">
         <v>0.03</v>
       </c>
-      <c r="E97" t="s">
-        <v>492</v>
+      <c r="E97" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="G97" s="21"/>
     </row>
-    <row r="98" spans="1:10" ht="32.4">
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -5755,12 +5753,12 @@
       <c r="D98" s="4">
         <v>0.03</v>
       </c>
-      <c r="E98" s="20" t="s">
-        <v>498</v>
+      <c r="E98" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="G98" s="21"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -5773,12 +5771,12 @@
       <c r="D99" s="4">
         <v>0.03</v>
       </c>
-      <c r="E99" s="15" t="s">
-        <v>493</v>
+      <c r="E99" t="s">
+        <v>494</v>
       </c>
       <c r="G99" s="21"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -5791,12 +5789,12 @@
       <c r="D100" s="4">
         <v>0.03</v>
       </c>
-      <c r="E100" t="s">
-        <v>494</v>
+      <c r="E100" s="15" t="s">
+        <v>495</v>
       </c>
       <c r="G100" s="21"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -5809,12 +5807,12 @@
       <c r="D101" s="4">
         <v>0.03</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>495</v>
+      <c r="E101" t="s">
+        <v>482</v>
       </c>
       <c r="G101" s="21"/>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -5828,11 +5826,11 @@
         <v>0.03</v>
       </c>
       <c r="E102" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G102" s="21"/>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -5846,11 +5844,11 @@
         <v>0.03</v>
       </c>
       <c r="E103" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G103" s="21"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -5864,11 +5862,11 @@
         <v>0.03</v>
       </c>
       <c r="E104" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:11">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -5876,17 +5874,16 @@
         <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D105" s="4">
-        <v>0.03</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E105" t="s">
-        <v>499</v>
-      </c>
-      <c r="G105" s="21"/>
-    </row>
-    <row r="106" spans="1:10">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -5897,13 +5894,16 @@
         <v>500</v>
       </c>
       <c r="D106" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E106" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10">
+        <v>501</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -5917,13 +5917,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E107" t="s">
-        <v>501</v>
-      </c>
-      <c r="G107" s="21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10">
+        <v>487</v>
+      </c>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="1:11" ht="194.4">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -5934,14 +5932,14 @@
         <v>500</v>
       </c>
       <c r="D108" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E108" t="s">
-        <v>487</v>
+        <v>0.1</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>503</v>
       </c>
       <c r="G108" s="15"/>
     </row>
-    <row r="109" spans="1:10" ht="194.4">
+    <row r="109" spans="1:11" ht="48.6">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -5955,11 +5953,11 @@
         <v>0.1</v>
       </c>
       <c r="E109" s="20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G109" s="15"/>
     </row>
-    <row r="110" spans="1:10" ht="48.6">
+    <row r="110" spans="1:11" ht="64.8">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -5973,29 +5971,33 @@
         <v>0.1</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G110" s="15"/>
     </row>
-    <row r="111" spans="1:10" ht="64.8">
+    <row r="111" spans="1:11">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="D111" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E111" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>398</v>
+      </c>
+      <c r="F111" s="22"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="21"/>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -6006,18 +6008,18 @@
         <v>470</v>
       </c>
       <c r="D112" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E112" t="s">
-        <v>398</v>
-      </c>
-      <c r="F112" s="22"/>
-      <c r="G112" s="19"/>
+        <v>0.03</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="G112" s="22"/>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
-      <c r="J112" s="21"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="J112" s="19"/>
+      <c r="K112" s="21"/>
+    </row>
+    <row r="113" spans="1:7" ht="113.4">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -6030,16 +6032,12 @@
       <c r="D113" s="4">
         <v>0.03</v>
       </c>
-      <c r="E113" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="G113" s="22"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="1:11" ht="113.4">
+      <c r="E113" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="G113" s="21"/>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -6047,17 +6045,18 @@
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D114" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E114" s="20" t="s">
-        <v>519</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>398</v>
+      </c>
+      <c r="F114" s="20"/>
       <c r="G114" s="21"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:7" ht="409.6">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -6068,15 +6067,14 @@
         <v>480</v>
       </c>
       <c r="D115" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E115" t="s">
-        <v>398</v>
-      </c>
-      <c r="F115" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E115" s="20" t="s">
+        <v>481</v>
+      </c>
       <c r="G115" s="21"/>
     </row>
-    <row r="116" spans="1:11" ht="409.6">
+    <row r="116" spans="1:7" ht="97.2">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -6090,11 +6088,11 @@
         <v>0.03</v>
       </c>
       <c r="E116" s="20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G116" s="21"/>
     </row>
-    <row r="117" spans="1:11" ht="97.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -6107,12 +6105,12 @@
       <c r="D117" s="4">
         <v>0.03</v>
       </c>
-      <c r="E117" s="20" t="s">
-        <v>483</v>
+      <c r="E117" t="s">
+        <v>256</v>
       </c>
       <c r="G117" s="21"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:7" ht="113.4">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -6125,12 +6123,12 @@
       <c r="D118" s="4">
         <v>0.03</v>
       </c>
-      <c r="E118" t="s">
-        <v>256</v>
+      <c r="E118" s="20" t="s">
+        <v>484</v>
       </c>
       <c r="G118" s="21"/>
     </row>
-    <row r="119" spans="1:11" ht="113.4">
+    <row r="119" spans="1:7">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -6138,17 +6136,18 @@
         <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="D119" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E119" s="20" t="s">
-        <v>484</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E119" t="s">
+        <v>398</v>
+      </c>
+      <c r="F119" s="20"/>
       <c r="G119" s="21"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:7" ht="178.2">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -6159,15 +6158,14 @@
         <v>485</v>
       </c>
       <c r="D120" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E120" t="s">
-        <v>398</v>
-      </c>
-      <c r="F120" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E120" s="26" t="s">
+        <v>486</v>
+      </c>
       <c r="G120" s="21"/>
     </row>
-    <row r="121" spans="1:11" ht="178.2">
+    <row r="121" spans="1:7" ht="162">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -6180,12 +6178,12 @@
       <c r="D121" s="4">
         <v>0.03</v>
       </c>
-      <c r="E121" s="26" t="s">
-        <v>486</v>
+      <c r="E121" s="20" t="s">
+        <v>488</v>
       </c>
       <c r="G121" s="21"/>
     </row>
-    <row r="122" spans="1:11" ht="162">
+    <row r="122" spans="1:7" ht="226.8">
       <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
@@ -6199,11 +6197,11 @@
         <v>0.03</v>
       </c>
       <c r="E122" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G122" s="21"/>
     </row>
-    <row r="123" spans="1:11" ht="226.8">
+    <row r="123" spans="1:7">
       <c r="A123" s="1" t="s">
         <v>7</v>
       </c>
@@ -6211,17 +6209,18 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D123" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E123" s="20" t="s">
-        <v>489</v>
-      </c>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>398</v>
+      </c>
+      <c r="F123" s="20"/>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:7">
       <c r="A124" s="1" t="s">
         <v>7</v>
       </c>
@@ -6232,15 +6231,14 @@
         <v>490</v>
       </c>
       <c r="D124" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E124" t="s">
-        <v>398</v>
-      </c>
-      <c r="F124" s="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="E124" s="20" t="s">
+        <v>491</v>
+      </c>
       <c r="G124" s="21"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:7">
       <c r="A125" s="1" t="s">
         <v>7</v>
       </c>
@@ -6253,12 +6251,12 @@
       <c r="D125" s="4">
         <v>0.03</v>
       </c>
-      <c r="E125" s="20" t="s">
-        <v>491</v>
+      <c r="E125" t="s">
+        <v>492</v>
       </c>
       <c r="G125" s="21"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:7" ht="32.4">
       <c r="A126" s="1" t="s">
         <v>7</v>
       </c>
@@ -6271,12 +6269,12 @@
       <c r="D126" s="4">
         <v>0.03</v>
       </c>
-      <c r="E126" t="s">
-        <v>492</v>
+      <c r="E126" s="20" t="s">
+        <v>498</v>
       </c>
       <c r="G126" s="21"/>
     </row>
-    <row r="127" spans="1:11" ht="32.4">
+    <row r="127" spans="1:7">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
@@ -6289,12 +6287,12 @@
       <c r="D127" s="4">
         <v>0.03</v>
       </c>
-      <c r="E127" s="20" t="s">
-        <v>498</v>
+      <c r="E127" s="15" t="s">
+        <v>493</v>
       </c>
       <c r="G127" s="21"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:7">
       <c r="A128" s="1" t="s">
         <v>7</v>
       </c>
@@ -6307,8 +6305,8 @@
       <c r="D128" s="4">
         <v>0.03</v>
       </c>
-      <c r="E128" s="15" t="s">
-        <v>493</v>
+      <c r="E128" t="s">
+        <v>494</v>
       </c>
       <c r="G128" s="21"/>
     </row>
@@ -6325,8 +6323,8 @@
       <c r="D129" s="4">
         <v>0.03</v>
       </c>
-      <c r="E129" t="s">
-        <v>494</v>
+      <c r="E129" s="15" t="s">
+        <v>495</v>
       </c>
       <c r="G129" s="21"/>
     </row>
@@ -6343,8 +6341,8 @@
       <c r="D130" s="4">
         <v>0.03</v>
       </c>
-      <c r="E130" s="15" t="s">
-        <v>495</v>
+      <c r="E130" t="s">
+        <v>482</v>
       </c>
       <c r="G130" s="21"/>
     </row>
@@ -6362,7 +6360,7 @@
         <v>0.03</v>
       </c>
       <c r="E131" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="G131" s="21"/>
     </row>
@@ -6380,7 +6378,7 @@
         <v>0.03</v>
       </c>
       <c r="E132" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G132" s="21"/>
     </row>
@@ -6398,7 +6396,7 @@
         <v>0.03</v>
       </c>
       <c r="E133" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G133" s="21"/>
     </row>
@@ -6410,15 +6408,14 @@
         <v>2</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D134" s="4">
-        <v>0.03</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E134" t="s">
-        <v>499</v>
-      </c>
-      <c r="G134" s="21"/>
+        <v>398</v>
+      </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
@@ -6431,10 +6428,13 @@
         <v>500</v>
       </c>
       <c r="D135" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E135" t="s">
-        <v>398</v>
+        <v>501</v>
+      </c>
+      <c r="G135" s="21" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6451,13 +6451,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="E136" t="s">
-        <v>501</v>
-      </c>
-      <c r="G136" s="21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>487</v>
+      </c>
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" spans="1:7" ht="194.4">
       <c r="A137" s="1" t="s">
         <v>7</v>
       </c>
@@ -6468,14 +6466,14 @@
         <v>500</v>
       </c>
       <c r="D137" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E137" t="s">
-        <v>487</v>
+        <v>0.1</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>503</v>
       </c>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="1:7" ht="194.4">
+    <row r="138" spans="1:7" ht="48.6">
       <c r="A138" s="1" t="s">
         <v>7</v>
       </c>
@@ -6489,11 +6487,11 @@
         <v>0.1</v>
       </c>
       <c r="E138" s="20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="1:7" ht="48.6">
+    <row r="139" spans="1:7" ht="64.8">
       <c r="A139" s="1" t="s">
         <v>7</v>
       </c>
@@ -6507,27 +6505,27 @@
         <v>0.1</v>
       </c>
       <c r="E139" s="20" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="1:7" ht="64.8">
+    <row r="140" spans="1:7">
       <c r="A140" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>500</v>
+        <v>131</v>
       </c>
       <c r="D140" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E140" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="G140" s="15"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>398</v>
+      </c>
+      <c r="F140" s="19"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="1" t="s">
@@ -6540,12 +6538,11 @@
         <v>131</v>
       </c>
       <c r="D141" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E141" t="s">
-        <v>398</v>
-      </c>
-      <c r="F141" s="19"/>
+        <v>409</v>
+      </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="1" t="s">
@@ -6554,51 +6551,51 @@
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" t="s">
         <v>131</v>
       </c>
       <c r="D142" s="4">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143" t="s">
-        <v>131</v>
+      <c r="C143" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="D143" s="4">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>408</v>
+        <v>398</v>
+      </c>
+      <c r="G143" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>132</v>
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>191</v>
       </c>
       <c r="D144" s="4">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E144" t="s">
         <v>398</v>
-      </c>
-      <c r="G144" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6606,16 +6603,19 @@
         <v>7</v>
       </c>
       <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145" t="s">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D145" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E145" t="s">
         <v>398</v>
+      </c>
+      <c r="G145" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6629,10 +6629,10 @@
         <v>192</v>
       </c>
       <c r="D146" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E146" t="s">
-        <v>398</v>
+        <v>194</v>
       </c>
       <c r="G146" t="s">
         <v>193</v>
@@ -6643,16 +6643,16 @@
         <v>7</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>192</v>
       </c>
       <c r="D147" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E147" t="s">
-        <v>194</v>
+        <v>398</v>
       </c>
       <c r="G147" t="s">
         <v>193</v>
@@ -6669,36 +6669,36 @@
         <v>192</v>
       </c>
       <c r="D148" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E148" t="s">
-        <v>398</v>
+        <v>194</v>
       </c>
       <c r="G148" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" ht="21.6" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D149" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E149" t="s">
-        <v>194</v>
-      </c>
-      <c r="G149" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="21.6" customHeight="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="s">
         <v>7</v>
       </c>
@@ -6706,17 +6706,14 @@
         <v>1</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="D150" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E150" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="7"/>
+      <c r="E150" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
@@ -6726,7 +6723,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D151" s="4">
         <v>3.0000000000000001E-3</v>
@@ -6737,16 +6734,16 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>213</v>
+        <v>23</v>
       </c>
       <c r="D152" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E152" t="s">
         <v>398</v>
@@ -6754,18 +6751,18 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B153">
         <v>0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="D153" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E153" t="s">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6780,35 +6777,35 @@
         <v>131</v>
       </c>
       <c r="D154" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>398</v>
+        <v>0.04</v>
+      </c>
+      <c r="E154" t="s">
+        <v>200</v>
+      </c>
+      <c r="F154" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D155" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="E155" t="s">
-        <v>200</v>
-      </c>
-      <c r="F155" t="s">
-        <v>511</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -6817,10 +6814,13 @@
         <v>24</v>
       </c>
       <c r="D156" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>398</v>
+        <v>0.04</v>
+      </c>
+      <c r="E156" t="s">
+        <v>200</v>
+      </c>
+      <c r="F156" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6828,24 +6828,21 @@
         <v>198</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D157" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="E157" t="s">
-        <v>200</v>
-      </c>
-      <c r="F157" t="s">
-        <v>511</v>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -6854,30 +6851,33 @@
         <v>24</v>
       </c>
       <c r="D158" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>398</v>
+        <v>0.04</v>
+      </c>
+      <c r="E158" t="s">
+        <v>200</v>
+      </c>
+      <c r="F158" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="D159" s="4">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E159" t="s">
-        <v>200</v>
-      </c>
-      <c r="F159" t="s">
-        <v>511</v>
+        <v>398</v>
+      </c>
+      <c r="G159" s="28" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6891,14 +6891,12 @@
         <v>132</v>
       </c>
       <c r="D160" s="4">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E160" t="s">
-        <v>398</v>
-      </c>
-      <c r="G160" s="28" t="s">
-        <v>209</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G160" s="28"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
@@ -6914,7 +6912,7 @@
         <v>0.06</v>
       </c>
       <c r="E161" t="s">
-        <v>201</v>
+        <v>403</v>
       </c>
       <c r="G161" s="28"/>
     </row>
@@ -6932,7 +6930,7 @@
         <v>0.06</v>
       </c>
       <c r="E162" t="s">
-        <v>403</v>
+        <v>154</v>
       </c>
       <c r="G162" s="28"/>
     </row>
@@ -6947,12 +6945,11 @@
         <v>132</v>
       </c>
       <c r="D163" s="4">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E163" t="s">
-        <v>154</v>
-      </c>
-      <c r="G163" s="28"/>
+        <v>203</v>
+      </c>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
@@ -6965,10 +6962,10 @@
         <v>132</v>
       </c>
       <c r="D164" s="4">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="E164" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6976,16 +6973,19 @@
         <v>198</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="D165" s="4">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E165" t="s">
-        <v>205</v>
+        <v>398</v>
+      </c>
+      <c r="G165" s="28" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -7002,18 +7002,16 @@
         <v>0.01</v>
       </c>
       <c r="E166" t="s">
-        <v>398</v>
-      </c>
-      <c r="G166" s="28" t="s">
-        <v>206</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G166" s="28"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>191</v>
@@ -7022,9 +7020,11 @@
         <v>0.01</v>
       </c>
       <c r="E167" t="s">
-        <v>207</v>
-      </c>
-      <c r="G167" s="28"/>
+        <v>398</v>
+      </c>
+      <c r="G167" s="28" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
@@ -7040,29 +7040,26 @@
         <v>0.01</v>
       </c>
       <c r="E168" t="s">
-        <v>398</v>
-      </c>
-      <c r="G168" s="28" t="s">
-        <v>206</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="G168" s="28"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D169" s="4">
         <v>0.01</v>
       </c>
       <c r="E169" t="s">
-        <v>207</v>
-      </c>
-      <c r="G169" s="28"/>
+        <v>398</v>
+      </c>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
@@ -7075,10 +7072,10 @@
         <v>192</v>
       </c>
       <c r="D170" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E170" t="s">
-        <v>398</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -7086,16 +7083,19 @@
         <v>198</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="D171" s="4">
-        <v>0.02</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E171" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+      <c r="G171" s="28" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -7109,14 +7109,12 @@
         <v>136</v>
       </c>
       <c r="D172" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E172" t="s">
-        <v>210</v>
-      </c>
-      <c r="G172" s="28" t="s">
-        <v>221</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
@@ -7129,12 +7127,14 @@
         <v>136</v>
       </c>
       <c r="D173" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E173" t="s">
-        <v>211</v>
-      </c>
-      <c r="G173" s="28"/>
+        <v>140</v>
+      </c>
+      <c r="G173" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
@@ -7144,16 +7144,19 @@
         <v>0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="D174" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E174" t="s">
         <v>140</v>
       </c>
-      <c r="G174" t="s">
-        <v>193</v>
+      <c r="F174" t="s">
+        <v>210</v>
+      </c>
+      <c r="G174" s="28" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -7167,17 +7170,15 @@
         <v>196</v>
       </c>
       <c r="D175" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E175" t="s">
         <v>140</v>
       </c>
       <c r="F175" t="s">
-        <v>210</v>
-      </c>
-      <c r="G175" s="28" t="s">
-        <v>221</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G175" s="28"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
@@ -7190,15 +7191,14 @@
         <v>196</v>
       </c>
       <c r="D176" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>5.3E-3</v>
       </c>
       <c r="E176" t="s">
         <v>140</v>
       </c>
-      <c r="F176" t="s">
-        <v>211</v>
-      </c>
-      <c r="G176" s="28"/>
+      <c r="G176" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
@@ -7208,16 +7208,13 @@
         <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D177" s="4">
-        <v>5.3E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E177" t="s">
-        <v>140</v>
-      </c>
-      <c r="G177" t="s">
-        <v>193</v>
+        <v>398</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -7234,7 +7231,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E178" t="s">
-        <v>398</v>
+        <v>224</v>
+      </c>
+      <c r="F178" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7248,13 +7248,10 @@
         <v>213</v>
       </c>
       <c r="D179" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E179" t="s">
-        <v>224</v>
-      </c>
-      <c r="F179" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7262,16 +7259,16 @@
         <v>198</v>
       </c>
       <c r="B180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D180" s="4">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E180" t="s">
-        <v>226</v>
+        <v>398</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -7285,10 +7282,13 @@
         <v>213</v>
       </c>
       <c r="D181" s="4">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E181" t="s">
-        <v>398</v>
+        <v>224</v>
+      </c>
+      <c r="F181" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -7302,13 +7302,10 @@
         <v>213</v>
       </c>
       <c r="D182" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="E182" t="s">
-        <v>224</v>
-      </c>
-      <c r="F182" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -7316,16 +7313,16 @@
         <v>198</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D183" s="4">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E183" t="s">
-        <v>226</v>
+        <v>398</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -7336,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D184" s="4">
         <v>1E-3</v>
@@ -7353,10 +7350,10 @@
         <v>0</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D185" s="4">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E185" t="s">
         <v>398</v>
@@ -7370,14 +7367,17 @@
         <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="D186" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E186" t="s">
         <v>398</v>
       </c>
+      <c r="G186" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D187" s="4">
         <v>0.01</v>
@@ -7395,19 +7395,16 @@
       <c r="E187" t="s">
         <v>398</v>
       </c>
-      <c r="G187" s="5" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D188" s="4">
         <v>0.01</v>
@@ -7421,13 +7418,13 @@
         <v>198</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D189" s="4">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E189" t="s">
         <v>398</v>
@@ -7438,13 +7435,13 @@
         <v>198</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>241</v>
+        <v>11</v>
       </c>
       <c r="D190" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E190" t="s">
         <v>398</v>
@@ -7455,10 +7452,10 @@
         <v>198</v>
       </c>
       <c r="B191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D191" s="4">
         <v>0.01</v>
@@ -7472,13 +7469,13 @@
         <v>198</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="D192" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E192" t="s">
         <v>398</v>
@@ -7489,10 +7486,10 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D193" s="4">
         <v>5.0000000000000001E-3</v>
@@ -7506,16 +7503,16 @@
         <v>198</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D194" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E194" t="s">
-        <v>398</v>
+        <v>178</v>
+      </c>
+      <c r="D194" s="6">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -7531,8 +7528,8 @@
       <c r="D195" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E195" s="1" t="s">
-        <v>203</v>
+      <c r="E195" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7549,7 +7546,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E196" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7566,7 +7563,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E197" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7583,7 +7580,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E198" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7600,7 +7597,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E199" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7617,7 +7614,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E200" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7634,7 +7631,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E201" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7651,7 +7648,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E202" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7668,7 +7665,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E203" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7685,7 +7682,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E204" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7693,7 +7690,7 @@
         <v>198</v>
       </c>
       <c r="B205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>178</v>
@@ -7701,8 +7698,8 @@
       <c r="D205" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E205" t="s">
-        <v>158</v>
+      <c r="E205" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7718,8 +7715,8 @@
       <c r="D206" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E206" s="1" t="s">
-        <v>203</v>
+      <c r="E206" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7736,7 +7733,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E207" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7753,7 +7750,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7770,7 +7767,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E209" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7787,7 +7784,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E210" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7804,7 +7801,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E211" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7821,7 +7818,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E212" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7838,7 +7835,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E213" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7855,7 +7852,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E214" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7872,7 +7869,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E215" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7880,7 +7877,7 @@
         <v>198</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>178</v>
@@ -7888,8 +7885,8 @@
       <c r="D216" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E216" t="s">
-        <v>158</v>
+      <c r="E216" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7905,8 +7902,8 @@
       <c r="D217" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E217" s="1" t="s">
-        <v>203</v>
+      <c r="E217" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7923,7 +7920,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E218" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7940,7 +7937,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>177</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7957,7 +7954,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E220" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7974,7 +7971,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E221" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7991,7 +7988,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E222" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -8008,7 +8005,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E223" t="s">
-        <v>154</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -8025,7 +8022,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E224" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -8042,7 +8039,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E225" t="s">
-        <v>133</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8059,7 +8056,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E226" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8067,16 +8064,16 @@
         <v>198</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D227" s="6">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="E227" t="s">
-        <v>158</v>
+        <v>16</v>
+      </c>
+      <c r="D227" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -8090,10 +8087,10 @@
         <v>16</v>
       </c>
       <c r="D228" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>398</v>
+        <v>155</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8110,7 +8107,7 @@
         <v>0.01</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -8127,10 +8124,10 @@
         <v>0.01</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.6" customHeight="1">
       <c r="A231" s="1" t="s">
         <v>198</v>
       </c>
@@ -8144,10 +8141,10 @@
         <v>0.01</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="15.6" customHeight="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
         <v>198</v>
       </c>
@@ -8155,13 +8152,13 @@
         <v>0</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D232" s="4">
         <v>0.01</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8175,10 +8172,10 @@
         <v>17</v>
       </c>
       <c r="D233" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>398</v>
+        <v>259</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8195,7 +8192,7 @@
         <v>1.67E-2</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8203,16 +8200,16 @@
         <v>198</v>
       </c>
       <c r="B235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D235" s="4">
-        <v>1.67E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>260</v>
+        <v>398</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8226,10 +8223,10 @@
         <v>17</v>
       </c>
       <c r="D236" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>398</v>
+        <v>259</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8246,7 +8243,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F237" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8254,19 +8254,16 @@
         <v>198</v>
       </c>
       <c r="B238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D238" s="4">
-        <v>1.67E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F238" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8280,10 +8277,10 @@
         <v>17</v>
       </c>
       <c r="D239" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>398</v>
+        <v>259</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8300,7 +8297,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F240" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8308,19 +8308,16 @@
         <v>198</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="D241" s="4">
-        <v>1.67E-2</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F241" t="s">
-        <v>422</v>
+        <v>0.01</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8336,8 +8333,8 @@
       <c r="D242" s="4">
         <v>0.01</v>
       </c>
-      <c r="E242" s="12" t="s">
-        <v>256</v>
+      <c r="E242" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -8351,10 +8348,10 @@
         <v>249</v>
       </c>
       <c r="D243" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -8371,7 +8368,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F244" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -8379,19 +8379,16 @@
         <v>198</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D245" s="4">
-        <v>1.67E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F245" t="s">
-        <v>422</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -8408,7 +8405,7 @@
         <v>0.01</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -8422,10 +8419,10 @@
         <v>255</v>
       </c>
       <c r="D247" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -8442,7 +8439,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F248" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -8450,19 +8450,16 @@
         <v>198</v>
       </c>
       <c r="B249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D249" s="4">
-        <v>1.67E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F249" t="s">
-        <v>422</v>
+        <v>256</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -8479,7 +8476,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -8493,10 +8490,10 @@
         <v>251</v>
       </c>
       <c r="D251" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -8513,7 +8510,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F252" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -8521,19 +8521,16 @@
         <v>198</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D253" s="4">
-        <v>1.67E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F253" t="s">
-        <v>422</v>
+        <v>256</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -8550,7 +8547,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -8564,10 +8561,10 @@
         <v>251</v>
       </c>
       <c r="D255" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -8584,7 +8581,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F256" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -8592,19 +8592,16 @@
         <v>198</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D257" s="4">
-        <v>1.67E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F257" t="s">
-        <v>422</v>
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -8621,7 +8618,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -8635,10 +8632,10 @@
         <v>251</v>
       </c>
       <c r="D259" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -8655,7 +8652,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F260" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -8663,19 +8663,16 @@
         <v>198</v>
       </c>
       <c r="B261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D261" s="4">
-        <v>1.67E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F261" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -8689,10 +8686,13 @@
         <v>258</v>
       </c>
       <c r="D262" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>404</v>
+        <v>140</v>
+      </c>
+      <c r="F262" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -8709,7 +8709,7 @@
         <v>1.67E-2</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="F263" t="s">
         <v>261</v>
@@ -8720,19 +8720,16 @@
         <v>198</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>258</v>
+        <v>402</v>
       </c>
       <c r="D264" s="4">
-        <v>1.67E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F264" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -8746,10 +8743,10 @@
         <v>402</v>
       </c>
       <c r="D265" s="4">
-        <v>2.8799999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -8763,10 +8760,13 @@
         <v>402</v>
       </c>
       <c r="D266" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>398</v>
+        <v>142</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -8780,13 +8780,13 @@
         <v>402</v>
       </c>
       <c r="D267" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="F267" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -8797,16 +8797,13 @@
         <v>0</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
       <c r="D268" s="4">
-        <v>0.03</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F268" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -8820,10 +8817,10 @@
         <v>264</v>
       </c>
       <c r="D269" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -8837,10 +8834,13 @@
         <v>264</v>
       </c>
       <c r="D270" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>398</v>
+        <v>142</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -8854,13 +8854,13 @@
         <v>264</v>
       </c>
       <c r="D271" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F271" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="F271" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -8868,19 +8868,16 @@
         <v>198</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D272" s="4">
-        <v>0.03</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F272" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8894,10 +8891,10 @@
         <v>270</v>
       </c>
       <c r="D273" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8911,10 +8908,13 @@
         <v>270</v>
       </c>
       <c r="D274" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>398</v>
+        <v>142</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8928,13 +8928,13 @@
         <v>270</v>
       </c>
       <c r="D275" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F275" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="F275" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8945,16 +8945,13 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D276" s="4">
-        <v>0.03</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F276" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8968,10 +8965,10 @@
         <v>271</v>
       </c>
       <c r="D277" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8985,10 +8982,13 @@
         <v>271</v>
       </c>
       <c r="D278" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>398</v>
+        <v>142</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -9002,13 +9002,13 @@
         <v>271</v>
       </c>
       <c r="D279" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F279" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="F279" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -9016,19 +9016,16 @@
         <v>198</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D280" s="4">
-        <v>0.03</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F280" t="s">
-        <v>269</v>
+        <v>142</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -9042,10 +9039,10 @@
         <v>272</v>
       </c>
       <c r="D281" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -9059,10 +9056,13 @@
         <v>272</v>
       </c>
       <c r="D282" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>398</v>
+        <v>142</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -9076,13 +9076,16 @@
         <v>272</v>
       </c>
       <c r="D283" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F283" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="F283" t="s">
+        <v>269</v>
+      </c>
+      <c r="G283" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -9090,22 +9093,16 @@
         <v>198</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D284" s="4">
-        <v>0.03</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F284" t="s">
-        <v>269</v>
-      </c>
-      <c r="G284" t="s">
-        <v>276</v>
+        <v>142</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -9119,10 +9116,10 @@
         <v>274</v>
       </c>
       <c r="D285" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>142</v>
+        <v>398</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -9136,10 +9133,13 @@
         <v>274</v>
       </c>
       <c r="D286" s="4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>398</v>
+        <v>142</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -9153,13 +9153,13 @@
         <v>274</v>
       </c>
       <c r="D287" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F287" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="F287" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -9167,19 +9167,16 @@
         <v>198</v>
       </c>
       <c r="B288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D288" s="4">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F288" t="s">
-        <v>269</v>
+        <v>398</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -9187,13 +9184,13 @@
         <v>198</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D289" s="4">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>398</v>
@@ -9204,16 +9201,19 @@
         <v>198</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D290" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>398</v>
+        <v>154</v>
+      </c>
+      <c r="F290" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -9227,13 +9227,10 @@
         <v>278</v>
       </c>
       <c r="D291" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F291" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -9241,16 +9238,19 @@
         <v>198</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D292" s="4">
-        <v>3.3E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>398</v>
+        <v>154</v>
+      </c>
+      <c r="F292" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -9264,13 +9264,10 @@
         <v>279</v>
       </c>
       <c r="D293" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F293" t="s">
-        <v>273</v>
+        <v>398</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -9278,13 +9275,13 @@
         <v>198</v>
       </c>
       <c r="B294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D294" s="4">
-        <v>3.3E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>398</v>
@@ -9295,13 +9292,13 @@
         <v>198</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D295" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>398</v>
@@ -9315,13 +9312,19 @@
         <v>0</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D296" s="4">
         <v>0.01</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>398</v>
+        <v>154</v>
+      </c>
+      <c r="F296" t="s">
+        <v>413</v>
+      </c>
+      <c r="G296" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -9332,19 +9335,13 @@
         <v>0</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D297" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F297" t="s">
-        <v>413</v>
-      </c>
-      <c r="G297" t="s">
-        <v>276</v>
+        <v>398</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -9352,16 +9349,19 @@
         <v>198</v>
       </c>
       <c r="B298">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D298" s="4">
-        <v>3.3E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>398</v>
+        <v>259</v>
+      </c>
+      <c r="F298" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -9372,16 +9372,13 @@
         <v>2</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D299" s="4">
-        <v>0.01</v>
+        <v>3.3E-4</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F299" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -9389,13 +9386,13 @@
         <v>198</v>
       </c>
       <c r="B300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D300" s="4">
-        <v>3.3E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>398</v>
@@ -9406,13 +9403,13 @@
         <v>198</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D301" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>398</v>
@@ -9423,37 +9420,37 @@
         <v>198</v>
       </c>
       <c r="B302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D302" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="F302" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="303" spans="1:7">
       <c r="A303" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B303">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>290</v>
+        <v>416</v>
       </c>
       <c r="D303" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F303" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="304" spans="1:7">
       <c r="A304" s="1" t="s">
@@ -9466,10 +9463,13 @@
         <v>416</v>
       </c>
       <c r="D304" s="4">
-        <v>3.3E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E304" s="4" t="s">
-        <v>398</v>
+        <v>154</v>
+      </c>
+      <c r="F304" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -9477,19 +9477,16 @@
         <v>198</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="D305" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F305" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -9503,10 +9500,13 @@
         <v>294</v>
       </c>
       <c r="D306" s="4">
-        <v>3.3E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>398</v>
+        <v>154</v>
+      </c>
+      <c r="F306" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -9514,19 +9514,16 @@
         <v>198</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D307" s="4">
-        <v>1E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E307" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F307" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -9534,7 +9531,7 @@
         <v>198</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>295</v>
@@ -9551,7 +9548,7 @@
         <v>198</v>
       </c>
       <c r="B309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>295</v>
@@ -9568,16 +9565,16 @@
         <v>198</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D310" s="4">
-        <v>3.3E-3</v>
-      </c>
-      <c r="E310" s="4" t="s">
-        <v>398</v>
+        <v>0.01</v>
+      </c>
+      <c r="E310" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -9588,13 +9585,13 @@
         <v>0</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D311" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E311" t="s">
-        <v>291</v>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -9608,10 +9605,10 @@
         <v>298</v>
       </c>
       <c r="D312" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>398</v>
+        <v>0.01</v>
+      </c>
+      <c r="E312" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -9622,24 +9619,25 @@
         <v>0</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D313" s="4">
         <v>0.01</v>
       </c>
-      <c r="E313" t="s">
-        <v>291</v>
-      </c>
+      <c r="E313" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="F313" s="9"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>306</v>
+        <v>417</v>
       </c>
       <c r="D314" s="4">
         <v>0.01</v>
@@ -9654,13 +9652,13 @@
         <v>198</v>
       </c>
       <c r="B315">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D315" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>398</v>
@@ -9672,7 +9670,7 @@
         <v>198</v>
       </c>
       <c r="B316">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>418</v>
@@ -9690,25 +9688,24 @@
         <v>198</v>
       </c>
       <c r="B317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D317" s="4">
-        <v>3.3E-3</v>
-      </c>
-      <c r="E317" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F317" s="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="E317" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>419</v>
@@ -9725,16 +9722,16 @@
         <v>198</v>
       </c>
       <c r="B319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D319" s="4">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E319" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -9748,10 +9745,10 @@
         <v>420</v>
       </c>
       <c r="D320" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E320" t="s">
-        <v>261</v>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E320" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9765,10 +9762,10 @@
         <v>420</v>
       </c>
       <c r="D321" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E321" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9779,13 +9776,16 @@
         <v>1</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D322" s="4">
-        <v>1.67E-2</v>
-      </c>
-      <c r="E322" s="8" t="s">
-        <v>301</v>
+        <v>0.01</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G322" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9799,13 +9799,10 @@
         <v>421</v>
       </c>
       <c r="D323" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E323" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="G323" t="s">
-        <v>307</v>
+        <v>0.03</v>
+      </c>
+      <c r="E323" s="10" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -9821,26 +9818,13 @@
       <c r="D324" s="4">
         <v>0.03</v>
       </c>
-      <c r="E324" s="10" t="s">
-        <v>508</v>
+      <c r="E324" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B325">
-        <v>1</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D325" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E325" t="s">
-        <v>509</v>
-      </c>
+      <c r="A325" s="1"/>
+      <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:7">
       <c r="A326" s="1"/>
@@ -9860,7 +9844,6 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330" s="1"/>
-      <c r="C330" s="1"/>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" s="1"/>
@@ -9946,29 +9929,26 @@
     <row r="358" spans="1:1">
       <c r="A358" s="1"/>
     </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H324" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
+  <autoFilter ref="A1:H323" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="5">
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="G172:G173"/>
-    <mergeCell ref="G175:G176"/>
-    <mergeCell ref="G160:G163"/>
+    <mergeCell ref="G167:G168"/>
+    <mergeCell ref="G165:G166"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="G174:G175"/>
+    <mergeCell ref="G159:G162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E70" r:id="rId1" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{61760F8B-A478-4F92-9F5D-176B0BF0E576}"/>
-    <hyperlink ref="E72" r:id="rId2" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{80CD815D-2317-4C92-B78D-20C7EBA08278}"/>
-    <hyperlink ref="E99" r:id="rId3" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{BA97AEF2-66C4-4175-AC49-BD2F99AD98E2}"/>
-    <hyperlink ref="E101" r:id="rId4" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{C8F6319A-B192-4512-8C3B-E6B3F0CF020E}"/>
-    <hyperlink ref="E128" r:id="rId5" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{2E642369-39D2-40DB-93CE-21E8864A7816}"/>
-    <hyperlink ref="E130" r:id="rId6" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{FA337C1C-7021-4CC5-9E5F-FF2EA6595C63}"/>
+    <hyperlink ref="E69" r:id="rId1" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{61760F8B-A478-4F92-9F5D-176B0BF0E576}"/>
+    <hyperlink ref="E71" r:id="rId2" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{80CD815D-2317-4C92-B78D-20C7EBA08278}"/>
+    <hyperlink ref="E98" r:id="rId3" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{BA97AEF2-66C4-4175-AC49-BD2F99AD98E2}"/>
+    <hyperlink ref="E100" r:id="rId4" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{C8F6319A-B192-4512-8C3B-E6B3F0CF020E}"/>
+    <hyperlink ref="E127" r:id="rId5" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{2E642369-39D2-40DB-93CE-21E8864A7816}"/>
+    <hyperlink ref="E129" r:id="rId6" display="https://www.cathaybk.com.tw/cathaybk/personal/product/credit-card/cards/cube-list/" xr:uid="{FA337C1C-7021-4CC5-9E5F-FF2EA6595C63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -9980,7 +9960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:D34"/>
     </sheetView>
   </sheetViews>

--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5212862D-B6ED-4190-AFAF-144BBF20FED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA99464-F10A-46DA-9A8C-6D0F5A138D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="696" windowWidth="23040" windowHeight="11472" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="長期 (原本)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$K$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$K$321</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="560">
   <si>
     <t>銀行別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2808,6 +2808,46 @@
     <t>漢神百貨聯名卡_白金卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/C_UPE.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/C_MUJI.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/B_Coolplay.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷玩卡_鈦金卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUJI無印良品聯名卡_御璽卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUJI無印良品聯名卡_白金卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUJI無印良品聯名卡_晶緻卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南紡購物中心聯名卡_白金卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3053,7 +3093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3167,6 +3207,18 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4134,10 +4186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
-  <dimension ref="A1:K352"/>
+  <dimension ref="A1:K355"/>
   <sheetViews>
-    <sheetView topLeftCell="A286" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E282" sqref="E282"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -9656,31 +9708,30 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>305</v>
+        <v>558</v>
       </c>
       <c r="D306" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E306" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F306" s="9"/>
+        <v>3.3E-3</v>
+      </c>
+      <c r="E306" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
       <c r="D307" s="4">
         <v>0.01</v>
@@ -9695,13 +9746,13 @@
         <v>198</v>
       </c>
       <c r="B308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D308" s="4">
-        <v>3.3E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>397</v>
@@ -9713,7 +9764,7 @@
         <v>198</v>
       </c>
       <c r="B309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>417</v>
@@ -9731,24 +9782,25 @@
         <v>198</v>
       </c>
       <c r="B310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D310" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E310" t="s">
-        <v>296</v>
-      </c>
+        <v>3.3E-3</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F310" s="9"/>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B311">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>418</v>
@@ -9765,16 +9817,16 @@
         <v>198</v>
       </c>
       <c r="B312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D312" s="4">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="E312" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9782,16 +9834,16 @@
         <v>198</v>
       </c>
       <c r="B313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>419</v>
+        <v>559</v>
       </c>
       <c r="D313" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E313" s="8" t="s">
-        <v>299</v>
+        <v>0.05</v>
+      </c>
+      <c r="E313" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9799,16 +9851,16 @@
         <v>198</v>
       </c>
       <c r="B314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>419</v>
+        <v>559</v>
       </c>
       <c r="D314" s="4">
-        <v>1.67E-2</v>
-      </c>
-      <c r="E314" s="8" t="s">
-        <v>300</v>
+        <v>0.05</v>
+      </c>
+      <c r="E314" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9822,10 +9874,10 @@
         <v>419</v>
       </c>
       <c r="D315" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>302</v>
+        <v>0.01</v>
+      </c>
+      <c r="E315" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9836,19 +9888,16 @@
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D316" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E316" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G316" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" ht="55.2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E316" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="1" t="s">
         <v>198</v>
       </c>
@@ -9856,13 +9905,13 @@
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D317" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E317" s="10" t="s">
-        <v>507</v>
+        <v>1.67E-2</v>
+      </c>
+      <c r="E317" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9873,13 +9922,13 @@
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D318" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E318" t="s">
-        <v>508</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9887,65 +9936,110 @@
         <v>198</v>
       </c>
       <c r="B319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D319" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G319" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="55.2">
+      <c r="A320" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D320" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E320" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D321" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E321" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
-      <c r="A320" s="1"/>
-      <c r="C320" s="1"/>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="1"/>
-      <c r="C321" s="1"/>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="1"/>
-      <c r="C322" s="1"/>
-    </row>
-    <row r="323" spans="1:3">
+    <row r="323" spans="1:5">
       <c r="A323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:3">
+    <row r="324" spans="1:5">
       <c r="A324" s="1"/>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="1:5">
       <c r="A325" s="1"/>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="1:5">
       <c r="A326" s="1"/>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="1:5">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:3">
+    <row r="328" spans="1:5">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:3">
+    <row r="329" spans="1:5">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:3">
+    <row r="330" spans="1:5">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:3">
+    <row r="331" spans="1:5">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:3">
+    <row r="332" spans="1:5">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:5">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:3">
+    <row r="334" spans="1:5">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:5">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:3">
+    <row r="336" spans="1:5">
       <c r="A336" s="1"/>
     </row>
     <row r="337" spans="1:1">
@@ -9996,8 +10090,17 @@
     <row r="352" spans="1:1">
       <c r="A352" s="1"/>
     </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1"/>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1"/>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K318" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}"/>
+  <autoFilter ref="A1:K321" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}"/>
   <mergeCells count="5">
     <mergeCell ref="G167:G168"/>
     <mergeCell ref="G165:G166"/>
@@ -10022,10 +10125,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -11965,7 +12068,7 @@
         <v>116</v>
       </c>
       <c r="B94">
-        <f t="shared" ref="B94:B123" si="6">E94</f>
+        <f t="shared" ref="B94:B126" si="6">E94</f>
         <v>1</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -12044,66 +12147,66 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
+    <row r="98" spans="1:6" s="13" customFormat="1">
+      <c r="A98" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="13">
         <f t="shared" ref="B98:B100" si="7">E98</f>
         <v>0</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="E98" s="13">
+        <v>0</v>
+      </c>
+      <c r="F98" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:6" s="13" customFormat="1">
+      <c r="A99" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="13">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="13">
         <v>2</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
+    <row r="100" spans="1:6" s="13" customFormat="1">
+      <c r="A100" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100" t="s">
+      <c r="E100" s="13">
+        <v>1</v>
+      </c>
+      <c r="F100" s="13" t="s">
         <v>367</v>
       </c>
     </row>
@@ -12418,29 +12521,29 @@
       <c r="E115">
         <v>0</v>
       </c>
-      <c r="F115" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="1" t="s">
+      <c r="F115" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="13" customFormat="1">
+      <c r="A116" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B116">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D116" t="s">
-        <v>452</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116" t="s">
-        <v>374</v>
+      <c r="B116" s="13">
+        <f t="shared" ref="B116" si="8">E116</f>
+        <v>0</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="D116" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="E116" s="13">
+        <v>0</v>
+      </c>
+      <c r="F116" s="39" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -12449,16 +12552,16 @@
       </c>
       <c r="B117">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>416</v>
+        <v>305</v>
       </c>
       <c r="D117" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
         <v>374</v>
@@ -12470,19 +12573,19 @@
       </c>
       <c r="B118">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D118" t="s">
-        <v>454</v>
-      </c>
-      <c r="E118" s="1">
-        <v>0</v>
-      </c>
-      <c r="F118" s="15" t="s">
-        <v>406</v>
+        <v>453</v>
+      </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -12491,7 +12594,7 @@
       </c>
       <c r="B119">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>417</v>
@@ -12500,7 +12603,7 @@
         <v>454</v>
       </c>
       <c r="E119" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>406</v>
@@ -12512,91 +12615,159 @@
       </c>
       <c r="B120">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D120" t="s">
+        <v>454</v>
+      </c>
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="41" customFormat="1">
+      <c r="A121" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" s="41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C121" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="D120" t="s">
-        <v>113</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="D121" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="E121" s="40">
+        <v>0</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="H121" s="41" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="41" customFormat="1">
+      <c r="A122" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="41">
+        <f t="shared" ref="B122" si="9">E122</f>
+        <v>2</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="D122" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="E122" s="40">
+        <v>2</v>
+      </c>
+      <c r="F122" s="41" t="s">
         <v>375</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H122" s="41" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="1" t="s">
+    <row r="123" spans="1:8" s="13" customFormat="1">
+      <c r="A123" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B121">
-        <f t="shared" ref="B121" si="8">E121</f>
+      <c r="B123" s="13">
+        <v>0</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="E123" s="38">
+        <v>0</v>
+      </c>
+      <c r="F123" s="39" t="s">
+        <v>551</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="13" customFormat="1">
+      <c r="A124" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="13">
+        <f t="shared" ref="B124" si="10">E124</f>
         <v>2</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D121" t="s">
-        <v>113</v>
-      </c>
-      <c r="E121" s="1">
+      <c r="C124" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="E124" s="38">
         <v>2</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F124" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H124" s="13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1" t="s">
+    <row r="125" spans="1:8" s="41" customFormat="1">
+      <c r="A125" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B122">
+      <c r="B125" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D122" t="s">
-        <v>114</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122" t="s">
-        <v>365</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="C125" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="E125" s="41">
+        <v>1</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="G125" s="41" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="1" t="s">
+    <row r="126" spans="1:8" s="41" customFormat="1">
+      <c r="A126" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="B123">
+      <c r="B126" s="41">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C126" s="40" t="s">
+        <v>546</v>
+      </c>
+      <c r="D126" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123" t="s">
-        <v>377</v>
+      <c r="E126" s="41">
+        <v>1</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -12610,8 +12781,8 @@
     <hyperlink ref="F85" r:id="rId6" xr:uid="{01F18CED-00E4-4E32-A5DA-5D8D7DF0F5C1}"/>
     <hyperlink ref="F93" r:id="rId7" xr:uid="{9A27F726-91E7-47F1-B1C8-4BC8652E37DF}"/>
     <hyperlink ref="F114" r:id="rId8" xr:uid="{117D9651-3474-4C91-B395-38A4D7CC42C4}"/>
-    <hyperlink ref="F118" r:id="rId9" xr:uid="{3B271E89-4666-4104-84BA-B6D400B76763}"/>
-    <hyperlink ref="F119" r:id="rId10" xr:uid="{0FC2ACE6-4DF6-41A3-BA4A-5E8AED19BF57}"/>
+    <hyperlink ref="F119" r:id="rId9" xr:uid="{3B271E89-4666-4104-84BA-B6D400B76763}"/>
+    <hyperlink ref="F120" r:id="rId10" xr:uid="{0FC2ACE6-4DF6-41A3-BA4A-5E8AED19BF57}"/>
     <hyperlink ref="F11" r:id="rId11" xr:uid="{0B044A07-843B-44ED-A0A9-4A96CD8536AC}"/>
     <hyperlink ref="F104" r:id="rId12" xr:uid="{FEA781BC-74D2-42F5-BD31-0707F2F9F58B}"/>
     <hyperlink ref="F60" r:id="rId13" xr:uid="{D3A332EF-1BCE-429A-B3F5-2CBFE6AAADB1}"/>
@@ -12619,6 +12790,12 @@
     <hyperlink ref="F50" r:id="rId15" xr:uid="{5D210845-9E11-42FB-AA36-5344ECA0178E}"/>
     <hyperlink ref="F63" r:id="rId16" xr:uid="{1151544F-F6D7-4D8B-9D9D-2A23214F5770}"/>
     <hyperlink ref="F74" r:id="rId17" xr:uid="{DAB371C5-AE95-46D5-B728-4C33CE9DCD2E}"/>
+    <hyperlink ref="F126" r:id="rId18" xr:uid="{0FB798B6-6514-4691-8B2A-1DE8DFF4B360}"/>
+    <hyperlink ref="F121" r:id="rId19" xr:uid="{E0C7C516-A070-4DFF-A7C5-2A730E4F95A7}"/>
+    <hyperlink ref="F125" r:id="rId20" xr:uid="{15F660F3-9623-433D-920A-1390EC5AE434}"/>
+    <hyperlink ref="F115" r:id="rId21" xr:uid="{0B1837C7-5130-4945-AEDC-53A77B309C3B}"/>
+    <hyperlink ref="F123" r:id="rId22" xr:uid="{DDA6DE81-EF8B-4559-9099-B59A8F7241BE}"/>
+    <hyperlink ref="F116" r:id="rId23" xr:uid="{6F54FA40-6C60-49C0-A1B3-D7068062B4C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12960,7 +13137,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>

--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA99464-F10A-46DA-9A8C-6D0F5A138D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6A13B-5538-44D3-8C28-10D2B56D08E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -2781,10 +2781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中信商務卡/雙幣商務卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.fubon.com/banking/personal/credit_card/all_card/digitallife/digitallife.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,6 +2842,10 @@
   </si>
   <si>
     <t>157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信商務卡_雙幣商務卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3093,7 +3093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3202,23 +3202,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4188,7 +4182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
   <dimension ref="A1:K355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A284" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
@@ -7099,7 +7093,7 @@
       <c r="E159" t="s">
         <v>397</v>
       </c>
-      <c r="G159" s="36" t="s">
+      <c r="G159" s="38" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7119,7 +7113,7 @@
       <c r="E160" t="s">
         <v>201</v>
       </c>
-      <c r="G160" s="36"/>
+      <c r="G160" s="38"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
@@ -7137,7 +7131,7 @@
       <c r="E161" t="s">
         <v>402</v>
       </c>
-      <c r="G161" s="36"/>
+      <c r="G161" s="38"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
@@ -7155,7 +7149,7 @@
       <c r="E162" t="s">
         <v>154</v>
       </c>
-      <c r="G162" s="36"/>
+      <c r="G162" s="38"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
@@ -7207,7 +7201,7 @@
       <c r="E165" t="s">
         <v>397</v>
       </c>
-      <c r="G165" s="36" t="s">
+      <c r="G165" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7227,7 +7221,7 @@
       <c r="E166" t="s">
         <v>207</v>
       </c>
-      <c r="G166" s="36"/>
+      <c r="G166" s="38"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
@@ -7245,7 +7239,7 @@
       <c r="E167" t="s">
         <v>397</v>
       </c>
-      <c r="G167" s="36" t="s">
+      <c r="G167" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7265,7 +7259,7 @@
       <c r="E168" t="s">
         <v>207</v>
       </c>
-      <c r="G168" s="36"/>
+      <c r="G168" s="38"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
@@ -7317,7 +7311,7 @@
       <c r="E171" t="s">
         <v>210</v>
       </c>
-      <c r="G171" s="36" t="s">
+      <c r="G171" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7337,7 +7331,7 @@
       <c r="E172" t="s">
         <v>211</v>
       </c>
-      <c r="G172" s="36"/>
+      <c r="G172" s="38"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
@@ -7378,7 +7372,7 @@
       <c r="F174" t="s">
         <v>210</v>
       </c>
-      <c r="G174" s="36" t="s">
+      <c r="G174" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7401,7 +7395,7 @@
       <c r="F175" t="s">
         <v>211</v>
       </c>
-      <c r="G175" s="36"/>
+      <c r="G175" s="38"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
@@ -9714,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D306" s="4">
         <v>3.3E-3</v>
@@ -9837,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D313" s="4">
         <v>0.05</v>
@@ -9854,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D314" s="4">
         <v>0.05</v>
@@ -9993,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -10127,8 +10121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -10277,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11156,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" customHeight="1">
@@ -11426,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -11654,7 +11648,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -11906,8 +11900,8 @@
       <c r="C86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D86" t="s">
-        <v>543</v>
+      <c r="D86" s="13" t="s">
+        <v>559</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -12148,18 +12142,18 @@
       </c>
     </row>
     <row r="98" spans="1:6" s="13" customFormat="1">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="13">
         <f t="shared" ref="B98:B100" si="7">E98</f>
         <v>0</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E98" s="13">
         <v>0</v>
@@ -12169,18 +12163,18 @@
       </c>
     </row>
     <row r="99" spans="1:6" s="13" customFormat="1">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B99" s="13">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E99" s="13">
         <v>2</v>
@@ -12190,18 +12184,18 @@
       </c>
     </row>
     <row r="100" spans="1:6" s="13" customFormat="1">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B100" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C100" s="38" t="s">
+      <c r="C100" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E100" s="13">
         <v>1</v>
@@ -12526,23 +12520,23 @@
       </c>
     </row>
     <row r="116" spans="1:8" s="13" customFormat="1">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="13">
         <f t="shared" ref="B116" si="8">E116</f>
         <v>0</v>
       </c>
-      <c r="C116" s="38" t="s">
-        <v>558</v>
+      <c r="C116" s="36" t="s">
+        <v>557</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E116" s="13">
         <v>0</v>
       </c>
-      <c r="F116" s="39" t="s">
+      <c r="F116" s="37" t="s">
         <v>405</v>
       </c>
     </row>
@@ -12630,92 +12624,92 @@
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="41" customFormat="1">
-      <c r="A121" s="40" t="s">
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B121" s="41">
+      <c r="B121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="E121" s="40">
+        <v>553</v>
+      </c>
+      <c r="E121" s="1">
         <v>0</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="H121" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="H121" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="41" customFormat="1">
-      <c r="A122" s="40" t="s">
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="41">
+      <c r="B122">
         <f t="shared" ref="B122" si="9">E122</f>
         <v>2</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="E122" s="40">
+        <v>555</v>
+      </c>
+      <c r="E122" s="1">
         <v>2</v>
       </c>
-      <c r="F122" s="41" t="s">
+      <c r="F122" t="s">
         <v>375</v>
       </c>
-      <c r="H122" s="41" t="s">
+      <c r="H122" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="13" customFormat="1">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B123" s="13">
         <v>0</v>
       </c>
-      <c r="C123" s="38" t="s">
-        <v>559</v>
+      <c r="C123" s="36" t="s">
+        <v>558</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="E123" s="38">
-        <v>0</v>
-      </c>
-      <c r="F123" s="39" t="s">
-        <v>551</v>
+        <v>554</v>
+      </c>
+      <c r="E123" s="36">
+        <v>0</v>
+      </c>
+      <c r="F123" s="37" t="s">
+        <v>550</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="13" customFormat="1">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B124" s="13">
         <f t="shared" ref="B124" si="10">E124</f>
         <v>2</v>
       </c>
-      <c r="C124" s="38" t="s">
-        <v>559</v>
+      <c r="C124" s="36" t="s">
+        <v>558</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="E124" s="38">
+        <v>554</v>
+      </c>
+      <c r="E124" s="36">
         <v>2</v>
       </c>
       <c r="F124" s="13" t="s">
@@ -12725,49 +12719,49 @@
         <v>455</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="41" customFormat="1">
-      <c r="A125" s="40" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B125" s="41">
+      <c r="B125">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C125" s="40" t="s">
+      <c r="C125" s="1" t="s">
         <v>420</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="E125" s="41">
+        <v>552</v>
+      </c>
+      <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="G125" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="G125" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="41" customFormat="1">
-      <c r="A126" s="40" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B126" s="41">
+      <c r="B126">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C126" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="D126" s="41" t="s">
+      <c r="C126" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D126" t="s">
         <v>115</v>
       </c>
-      <c r="E126" s="41">
+      <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -13523,17 +13517,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13544,9 +13538,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" t="s">
         <v>318</v>
       </c>
@@ -14970,20 +14964,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>179</v>
       </c>
     </row>
@@ -14994,10 +14988,10 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="I2" t="s">
         <v>134</v>
       </c>
@@ -16126,7 +16120,7 @@
       <c r="D74" t="s">
         <v>130</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="38" t="s">
         <v>209</v>
       </c>
     </row>
@@ -16143,7 +16137,7 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="F75" s="36"/>
+      <c r="F75" s="38"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -16158,7 +16152,7 @@
       <c r="D76" t="s">
         <v>201</v>
       </c>
-      <c r="F76" s="36"/>
+      <c r="F76" s="38"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -16173,7 +16167,7 @@
       <c r="D77" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="36"/>
+      <c r="F77" s="38"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -16188,7 +16182,7 @@
       <c r="D78" t="s">
         <v>154</v>
       </c>
-      <c r="F78" s="36"/>
+      <c r="F78" s="38"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -16234,7 +16228,7 @@
       <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16251,7 +16245,7 @@
       <c r="D82" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="36"/>
+      <c r="F82" s="38"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -16269,7 +16263,7 @@
       <c r="E83" t="s">
         <v>207</v>
       </c>
-      <c r="F83" s="36"/>
+      <c r="F83" s="38"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -16332,7 +16326,7 @@
       <c r="E87" t="s">
         <v>210</v>
       </c>
-      <c r="F87" s="36" t="s">
+      <c r="F87" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16352,7 +16346,7 @@
       <c r="E88" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="36"/>
+      <c r="F88" s="38"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -16387,7 +16381,7 @@
       <c r="E90" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="36" t="s">
+      <c r="F90" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16407,7 +16401,7 @@
       <c r="E91" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="36"/>
+      <c r="F91" s="38"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">

--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA99464-F10A-46DA-9A8C-6D0F5A138D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E21DD-8779-46AD-8769-91E40B1CB3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -2781,10 +2781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中信商務卡/雙幣商務卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.fubon.com/banking/personal/credit_card/all_card/digitallife/digitallife.htm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,6 +2842,10 @@
   </si>
   <si>
     <t>157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信商務卡_雙幣商務卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3093,7 +3093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3202,23 +3202,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4188,8 +4182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
   <dimension ref="A1:K355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F320" sqref="F320"/>
+    <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B323" sqref="B323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7099,7 +7093,7 @@
       <c r="E159" t="s">
         <v>397</v>
       </c>
-      <c r="G159" s="36" t="s">
+      <c r="G159" s="38" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7119,7 +7113,7 @@
       <c r="E160" t="s">
         <v>201</v>
       </c>
-      <c r="G160" s="36"/>
+      <c r="G160" s="38"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
@@ -7137,7 +7131,7 @@
       <c r="E161" t="s">
         <v>402</v>
       </c>
-      <c r="G161" s="36"/>
+      <c r="G161" s="38"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
@@ -7155,7 +7149,7 @@
       <c r="E162" t="s">
         <v>154</v>
       </c>
-      <c r="G162" s="36"/>
+      <c r="G162" s="38"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
@@ -7207,7 +7201,7 @@
       <c r="E165" t="s">
         <v>397</v>
       </c>
-      <c r="G165" s="36" t="s">
+      <c r="G165" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7227,7 +7221,7 @@
       <c r="E166" t="s">
         <v>207</v>
       </c>
-      <c r="G166" s="36"/>
+      <c r="G166" s="38"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
@@ -7245,7 +7239,7 @@
       <c r="E167" t="s">
         <v>397</v>
       </c>
-      <c r="G167" s="36" t="s">
+      <c r="G167" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7265,7 +7259,7 @@
       <c r="E168" t="s">
         <v>207</v>
       </c>
-      <c r="G168" s="36"/>
+      <c r="G168" s="38"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
@@ -7317,7 +7311,7 @@
       <c r="E171" t="s">
         <v>210</v>
       </c>
-      <c r="G171" s="36" t="s">
+      <c r="G171" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7337,7 +7331,7 @@
       <c r="E172" t="s">
         <v>211</v>
       </c>
-      <c r="G172" s="36"/>
+      <c r="G172" s="38"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
@@ -7378,7 +7372,7 @@
       <c r="F174" t="s">
         <v>210</v>
       </c>
-      <c r="G174" s="36" t="s">
+      <c r="G174" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7401,7 +7395,7 @@
       <c r="F175" t="s">
         <v>211</v>
       </c>
-      <c r="G175" s="36"/>
+      <c r="G175" s="38"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
@@ -9714,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D306" s="4">
         <v>3.3E-3</v>
@@ -9837,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D313" s="4">
         <v>0.05</v>
@@ -9854,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D314" s="4">
         <v>0.05</v>
@@ -9993,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -10127,8 +10121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -10277,7 +10271,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11156,7 +11150,7 @@
         <v>1</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" customHeight="1">
@@ -11326,7 +11320,7 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="B59">
         <f t="shared" ref="B59" si="1">E59</f>
@@ -11389,7 +11383,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>217</v>
+        <v>116</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -11426,7 +11420,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -11654,7 +11648,7 @@
         <v>2</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -11907,7 +11901,7 @@
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -12148,18 +12142,18 @@
       </c>
     </row>
     <row r="98" spans="1:6" s="13" customFormat="1">
-      <c r="A98" s="38" t="s">
+      <c r="A98" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B98" s="13">
         <f t="shared" ref="B98:B100" si="7">E98</f>
         <v>0</v>
       </c>
-      <c r="C98" s="38" t="s">
+      <c r="C98" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E98" s="13">
         <v>0</v>
@@ -12169,18 +12163,18 @@
       </c>
     </row>
     <row r="99" spans="1:6" s="13" customFormat="1">
-      <c r="A99" s="38" t="s">
+      <c r="A99" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B99" s="13">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="C99" s="38" t="s">
+      <c r="C99" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E99" s="13">
         <v>2</v>
@@ -12190,18 +12184,18 @@
       </c>
     </row>
     <row r="100" spans="1:6" s="13" customFormat="1">
-      <c r="A100" s="38" t="s">
+      <c r="A100" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B100" s="13">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="C100" s="38" t="s">
+      <c r="C100" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E100" s="13">
         <v>1</v>
@@ -12526,23 +12520,23 @@
       </c>
     </row>
     <row r="116" spans="1:8" s="13" customFormat="1">
-      <c r="A116" s="38" t="s">
+      <c r="A116" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="13">
         <f t="shared" ref="B116" si="8">E116</f>
         <v>0</v>
       </c>
-      <c r="C116" s="38" t="s">
-        <v>558</v>
+      <c r="C116" s="36" t="s">
+        <v>557</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E116" s="13">
         <v>0</v>
       </c>
-      <c r="F116" s="39" t="s">
+      <c r="F116" s="37" t="s">
         <v>405</v>
       </c>
     </row>
@@ -12630,92 +12624,92 @@
         <v>406</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="41" customFormat="1">
-      <c r="A121" s="40" t="s">
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B121" s="41">
+      <c r="B121">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="C121" s="40" t="s">
+      <c r="C121" s="1" t="s">
         <v>418</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="E121" s="40">
+        <v>553</v>
+      </c>
+      <c r="E121" s="1">
         <v>0</v>
       </c>
       <c r="F121" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="H121" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="H121" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="41" customFormat="1">
-      <c r="A122" s="40" t="s">
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B122" s="41">
+      <c r="B122">
         <f t="shared" ref="B122" si="9">E122</f>
         <v>2</v>
       </c>
-      <c r="C122" s="40" t="s">
+      <c r="C122" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="E122" s="40">
+        <v>555</v>
+      </c>
+      <c r="E122" s="1">
         <v>2</v>
       </c>
-      <c r="F122" s="41" t="s">
+      <c r="F122" t="s">
         <v>375</v>
       </c>
-      <c r="H122" s="41" t="s">
+      <c r="H122" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="123" spans="1:8" s="13" customFormat="1">
-      <c r="A123" s="38" t="s">
+      <c r="A123" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B123" s="13">
         <v>0</v>
       </c>
-      <c r="C123" s="38" t="s">
-        <v>559</v>
+      <c r="C123" s="36" t="s">
+        <v>558</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="E123" s="38">
-        <v>0</v>
-      </c>
-      <c r="F123" s="39" t="s">
-        <v>551</v>
+        <v>554</v>
+      </c>
+      <c r="E123" s="36">
+        <v>0</v>
+      </c>
+      <c r="F123" s="37" t="s">
+        <v>550</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="13" customFormat="1">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B124" s="13">
         <f t="shared" ref="B124" si="10">E124</f>
         <v>2</v>
       </c>
-      <c r="C124" s="38" t="s">
-        <v>559</v>
+      <c r="C124" s="36" t="s">
+        <v>558</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="E124" s="38">
+        <v>554</v>
+      </c>
+      <c r="E124" s="36">
         <v>2</v>
       </c>
       <c r="F124" s="13" t="s">
@@ -12725,49 +12719,49 @@
         <v>455</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="41" customFormat="1">
-      <c r="A125" s="40" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B125" s="41">
+      <c r="B125">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C125" s="40" t="s">
+      <c r="C125" s="1" t="s">
         <v>420</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="E125" s="41">
+        <v>552</v>
+      </c>
+      <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="G125" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="G125" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="41" customFormat="1">
-      <c r="A126" s="40" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B126" s="41">
+      <c r="B126">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="C126" s="40" t="s">
-        <v>546</v>
-      </c>
-      <c r="D126" s="41" t="s">
+      <c r="C126" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D126" t="s">
         <v>115</v>
       </c>
-      <c r="E126" s="41">
+      <c r="E126">
         <v>1</v>
       </c>
       <c r="F126" s="25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -13523,17 +13517,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13544,9 +13538,9 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
       <c r="F2" t="s">
         <v>318</v>
       </c>
@@ -14970,20 +14964,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="38" t="s">
         <v>179</v>
       </c>
     </row>
@@ -14994,10 +14988,10 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
       <c r="I2" t="s">
         <v>134</v>
       </c>
@@ -16126,7 +16120,7 @@
       <c r="D74" t="s">
         <v>130</v>
       </c>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="38" t="s">
         <v>209</v>
       </c>
     </row>
@@ -16143,7 +16137,7 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="F75" s="36"/>
+      <c r="F75" s="38"/>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
@@ -16158,7 +16152,7 @@
       <c r="D76" t="s">
         <v>201</v>
       </c>
-      <c r="F76" s="36"/>
+      <c r="F76" s="38"/>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
@@ -16173,7 +16167,7 @@
       <c r="D77" t="s">
         <v>202</v>
       </c>
-      <c r="F77" s="36"/>
+      <c r="F77" s="38"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
@@ -16188,7 +16182,7 @@
       <c r="D78" t="s">
         <v>154</v>
       </c>
-      <c r="F78" s="36"/>
+      <c r="F78" s="38"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
@@ -16234,7 +16228,7 @@
       <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="38" t="s">
         <v>206</v>
       </c>
     </row>
@@ -16251,7 +16245,7 @@
       <c r="D82" t="s">
         <v>129</v>
       </c>
-      <c r="F82" s="36"/>
+      <c r="F82" s="38"/>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
@@ -16269,7 +16263,7 @@
       <c r="E83" t="s">
         <v>207</v>
       </c>
-      <c r="F83" s="36"/>
+      <c r="F83" s="38"/>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
@@ -16332,7 +16326,7 @@
       <c r="E87" t="s">
         <v>210</v>
       </c>
-      <c r="F87" s="36" t="s">
+      <c r="F87" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16352,7 +16346,7 @@
       <c r="E88" t="s">
         <v>211</v>
       </c>
-      <c r="F88" s="36"/>
+      <c r="F88" s="38"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
@@ -16387,7 +16381,7 @@
       <c r="E90" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="36" t="s">
+      <c r="F90" s="38" t="s">
         <v>221</v>
       </c>
     </row>
@@ -16407,7 +16401,7 @@
       <c r="E91" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="36"/>
+      <c r="F91" s="38"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">

--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E21DD-8779-46AD-8769-91E40B1CB3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615A6667-2274-4638-B37A-A9D42C9CECCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
@@ -22,7 +22,8 @@
     <sheet name="長期 (原本)" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$K$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卡片!$A$1:$H$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">長期!$A$1:$K$318</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2739" uniqueCount="561">
   <si>
     <t>銀行別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2793,10 +2794,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/B_EP_Titanium.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/B_Cashback_Titanium.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2846,6 +2843,14 @@
   </si>
   <si>
     <t>中信商務卡_雙幣商務卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/C_DayehTakashimaya.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/C_TAIPEI101.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4180,10 +4185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
-  <dimension ref="A1:K355"/>
+  <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B323" sqref="B323"/>
+    <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:XFD176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -7422,10 +7427,10 @@
         <v>198</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D177" s="4">
         <v>1E-3</v>
@@ -7433,25 +7438,22 @@
       <c r="E177" t="s">
         <v>397</v>
       </c>
-      <c r="G177" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D178" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="E178" t="s">
-        <v>224</v>
+        <v>397</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -7459,16 +7461,16 @@
         <v>198</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="D179" s="4">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E179" t="s">
-        <v>226</v>
+        <v>397</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -7479,14 +7481,17 @@
         <v>0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>227</v>
+        <v>43</v>
       </c>
       <c r="D180" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E180" t="s">
         <v>397</v>
       </c>
+      <c r="G180" s="5" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
@@ -7496,10 +7501,10 @@
         <v>0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="D181" s="4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E181" t="s">
         <v>397</v>
@@ -7510,13 +7515,13 @@
         <v>198</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D182" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E182" t="s">
         <v>397</v>
@@ -7527,20 +7532,17 @@
         <v>198</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>43</v>
+        <v>241</v>
       </c>
       <c r="D183" s="4">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E183" t="s">
         <v>397</v>
       </c>
-      <c r="G183" s="5" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
@@ -7550,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D184" s="4">
         <v>0.01</v>
@@ -7567,7 +7569,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="D185" s="4">
         <v>0.01</v>
@@ -7581,13 +7583,13 @@
         <v>198</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="D186" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E186" t="s">
         <v>397</v>
@@ -7598,13 +7600,13 @@
         <v>198</v>
       </c>
       <c r="B187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="D187" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E187" t="s">
         <v>397</v>
@@ -7615,16 +7617,16 @@
         <v>198</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E188" t="s">
-        <v>397</v>
+        <v>178</v>
+      </c>
+      <c r="D188" s="6">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -7635,13 +7637,13 @@
         <v>0</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D189" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>178</v>
+      </c>
+      <c r="D189" s="6">
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E189" t="s">
-        <v>397</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -7649,16 +7651,16 @@
         <v>198</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D190" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>178</v>
+      </c>
+      <c r="D190" s="6">
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E190" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -7674,8 +7676,8 @@
       <c r="D191" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>203</v>
+      <c r="E191" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -7692,7 +7694,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E192" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -7709,7 +7711,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E193" t="s">
-        <v>402</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7726,7 +7728,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E194" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -7743,7 +7745,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E195" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7760,7 +7762,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E196" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7777,7 +7779,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E197" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7794,7 +7796,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E198" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7802,7 +7804,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>178</v>
@@ -7810,8 +7812,8 @@
       <c r="D199" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E199" t="s">
-        <v>133</v>
+      <c r="E199" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7819,7 +7821,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>178</v>
@@ -7828,7 +7830,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E200" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7836,7 +7838,7 @@
         <v>198</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>178</v>
@@ -7845,7 +7847,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E201" t="s">
-        <v>158</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7861,8 +7863,8 @@
       <c r="D202" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E202" s="1" t="s">
-        <v>203</v>
+      <c r="E202" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7879,7 +7881,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E203" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7896,7 +7898,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E204" t="s">
-        <v>402</v>
+        <v>155</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7913,7 +7915,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E205" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7930,7 +7932,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E206" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7947,7 +7949,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E207" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7964,7 +7966,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E208" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7981,7 +7983,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E209" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7989,7 +7991,7 @@
         <v>198</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>178</v>
@@ -7997,8 +7999,8 @@
       <c r="D210" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E210" t="s">
-        <v>133</v>
+      <c r="E210" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -8006,7 +8008,7 @@
         <v>198</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>178</v>
@@ -8015,7 +8017,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E211" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -8023,7 +8025,7 @@
         <v>198</v>
       </c>
       <c r="B212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>178</v>
@@ -8032,7 +8034,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E212" t="s">
-        <v>158</v>
+        <v>402</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -8048,8 +8050,8 @@
       <c r="D213" s="6">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E213" s="1" t="s">
-        <v>203</v>
+      <c r="E213" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -8066,7 +8068,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E214" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -8083,7 +8085,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E215" t="s">
-        <v>402</v>
+        <v>155</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -8100,7 +8102,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E216" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -8117,7 +8119,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E217" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -8134,7 +8136,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E218" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -8151,7 +8153,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E219" t="s">
-        <v>154</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -8168,7 +8170,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E220" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -8176,16 +8178,16 @@
         <v>198</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D221" s="6">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="E221" t="s">
-        <v>133</v>
+        <v>16</v>
+      </c>
+      <c r="D221" s="4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -8193,16 +8195,16 @@
         <v>198</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D222" s="6">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="E222" t="s">
-        <v>245</v>
+        <v>16</v>
+      </c>
+      <c r="D222" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -8210,16 +8212,16 @@
         <v>198</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D223" s="6">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="E223" t="s">
-        <v>158</v>
+        <v>16</v>
+      </c>
+      <c r="D223" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -8233,13 +8235,13 @@
         <v>16</v>
       </c>
       <c r="D224" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.6" customHeight="1">
       <c r="A225" s="1" t="s">
         <v>198</v>
       </c>
@@ -8253,7 +8255,7 @@
         <v>0.01</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -8264,13 +8266,13 @@
         <v>0</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D226" s="4">
         <v>0.01</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>156</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -8281,16 +8283,16 @@
         <v>0</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D227" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" ht="15.6" customHeight="1">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="1" t="s">
         <v>198</v>
       </c>
@@ -8298,13 +8300,13 @@
         <v>0</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D228" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>402</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -8312,7 +8314,7 @@
         <v>198</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>17</v>
@@ -8329,7 +8331,7 @@
         <v>198</v>
       </c>
       <c r="B230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>17</v>
@@ -8346,7 +8348,7 @@
         <v>198</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>17</v>
@@ -8357,22 +8359,25 @@
       <c r="E231" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="F231" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="D232" s="4">
         <v>0.01</v>
       </c>
-      <c r="E232" s="4" t="s">
-        <v>397</v>
+      <c r="E232" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -8380,16 +8385,16 @@
         <v>198</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="D233" s="4">
-        <v>1.67E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -8397,19 +8402,16 @@
         <v>198</v>
       </c>
       <c r="B234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="D234" s="4">
         <v>1.67E-2</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F234" t="s">
-        <v>421</v>
+        <v>259</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -8423,10 +8425,13 @@
         <v>249</v>
       </c>
       <c r="D235" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E235" s="12" t="s">
-        <v>256</v>
+        <v>1.67E-2</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F235" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -8434,16 +8439,16 @@
         <v>198</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D236" s="4">
         <v>0.01</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -8451,16 +8456,16 @@
         <v>198</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D237" s="4">
-        <v>1.67E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -8468,19 +8473,16 @@
         <v>198</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D238" s="4">
         <v>1.67E-2</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F238" t="s">
-        <v>421</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -8494,10 +8496,13 @@
         <v>255</v>
       </c>
       <c r="D239" s="4">
-        <v>0.01</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="F239" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -8505,16 +8510,16 @@
         <v>198</v>
       </c>
       <c r="B240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D240" s="4">
-        <v>0.01</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -8522,16 +8527,16 @@
         <v>198</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D241" s="4">
-        <v>1.67E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -8539,19 +8544,16 @@
         <v>198</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D242" s="4">
         <v>1.67E-2</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F242" t="s">
-        <v>421</v>
+        <v>259</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -8565,10 +8567,13 @@
         <v>251</v>
       </c>
       <c r="D243" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="F243" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -8576,7 +8581,7 @@
         <v>198</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>251</v>
@@ -8585,7 +8590,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -8593,16 +8598,16 @@
         <v>198</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>251</v>
       </c>
       <c r="D245" s="4">
-        <v>1.67E-2</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -8610,7 +8615,7 @@
         <v>198</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>251</v>
@@ -8619,10 +8624,7 @@
         <v>1.67E-2</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F246" t="s">
-        <v>421</v>
+        <v>259</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -8636,10 +8638,13 @@
         <v>251</v>
       </c>
       <c r="D247" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
+      </c>
+      <c r="F247" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -8650,13 +8655,13 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D248" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>257</v>
+        <v>403</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -8667,13 +8672,16 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D249" s="4">
         <v>1.67E-2</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>259</v>
+        <v>140</v>
+      </c>
+      <c r="F249" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -8684,16 +8692,16 @@
         <v>1</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D250" s="4">
         <v>1.67E-2</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F250" t="s">
-        <v>421</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -8701,16 +8709,16 @@
         <v>198</v>
       </c>
       <c r="B251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="D251" s="4">
-        <v>0.01</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>403</v>
+        <v>142</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -8718,19 +8726,16 @@
         <v>198</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="D252" s="4">
-        <v>1.67E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F252" t="s">
-        <v>261</v>
+        <v>397</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -8738,19 +8743,19 @@
         <v>198</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>258</v>
+        <v>401</v>
       </c>
       <c r="D253" s="4">
-        <v>1.67E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F253" t="s">
-        <v>261</v>
+        <v>142</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -8764,10 +8769,13 @@
         <v>401</v>
       </c>
       <c r="D254" s="4">
-        <v>2.8799999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>142</v>
+        <v>268</v>
+      </c>
+      <c r="F254" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -8778,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>401</v>
+        <v>264</v>
       </c>
       <c r="D255" s="4">
-        <v>0.01</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>397</v>
+        <v>142</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -8795,39 +8803,36 @@
         <v>0</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>401</v>
+        <v>264</v>
       </c>
       <c r="D256" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D257" s="4">
         <v>0.02</v>
       </c>
-      <c r="E256" s="4" t="s">
+      <c r="E257" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F256" s="7" t="s">
+      <c r="F257" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D257" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E257" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F257" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
         <v>198</v>
       </c>
@@ -8838,70 +8843,70 @@
         <v>264</v>
       </c>
       <c r="D258" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F258" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D259" s="4">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E258" s="4" t="s">
+      <c r="E259" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D259" s="4">
+    <row r="260" spans="1:7">
+      <c r="A260" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D260" s="4">
         <v>0.01</v>
       </c>
-      <c r="E259" s="4" t="s">
+      <c r="E260" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D260" s="4">
+    <row r="261" spans="1:7">
+      <c r="A261" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D261" s="4">
         <v>0.02</v>
       </c>
-      <c r="E260" s="4" t="s">
+      <c r="E261" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F260" s="7" t="s">
+      <c r="F261" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D261" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F261" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
         <v>198</v>
       </c>
@@ -8912,70 +8917,70 @@
         <v>270</v>
       </c>
       <c r="D262" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F262" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D263" s="4">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E262" s="4" t="s">
+      <c r="E263" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B263">
-        <v>1</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D263" s="4">
+    <row r="264" spans="1:7">
+      <c r="A264" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D264" s="4">
         <v>0.01</v>
       </c>
-      <c r="E263" s="4" t="s">
+      <c r="E264" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D264" s="4">
+    <row r="265" spans="1:7">
+      <c r="A265" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D265" s="4">
         <v>0.02</v>
       </c>
-      <c r="E264" s="4" t="s">
+      <c r="E265" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F264" s="7" t="s">
+      <c r="F265" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B265">
-        <v>1</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D265" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F265" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
         <v>198</v>
       </c>
@@ -8986,70 +8991,70 @@
         <v>271</v>
       </c>
       <c r="D266" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F266" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D267" s="4">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E266" s="4" t="s">
+      <c r="E267" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D267" s="4">
+    <row r="268" spans="1:7">
+      <c r="A268" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D268" s="4">
         <v>0.01</v>
       </c>
-      <c r="E267" s="4" t="s">
+      <c r="E268" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
-      <c r="A268" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D268" s="4">
+    <row r="269" spans="1:7">
+      <c r="A269" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D269" s="4">
         <v>0.02</v>
       </c>
-      <c r="E268" s="4" t="s">
+      <c r="E269" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F268" s="7" t="s">
+      <c r="F269" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
-      <c r="A269" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D269" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F269" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
         <v>198</v>
       </c>
@@ -9060,47 +9065,50 @@
         <v>272</v>
       </c>
       <c r="D270" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F270" t="s">
+        <v>269</v>
+      </c>
+      <c r="G270" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D271" s="4">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="E270" s="4" t="s">
+      <c r="E271" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
-      <c r="A271" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D271" s="4">
+    <row r="272" spans="1:7">
+      <c r="A272" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D272" s="4">
         <v>0.01</v>
       </c>
-      <c r="E271" s="4" t="s">
+      <c r="E272" s="4" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D272" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F272" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -9108,22 +9116,19 @@
         <v>198</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D273" s="4">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F273" t="s">
-        <v>269</v>
-      </c>
-      <c r="G273" t="s">
-        <v>276</v>
+        <v>142</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -9137,10 +9142,13 @@
         <v>274</v>
       </c>
       <c r="D274" s="4">
-        <v>6.7000000000000002E-3</v>
+        <v>0.03</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>142</v>
+        <v>268</v>
+      </c>
+      <c r="F274" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -9148,10 +9156,10 @@
         <v>198</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D275" s="4">
         <v>0.01</v>
@@ -9168,16 +9176,13 @@
         <v>1</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D276" s="4">
-        <v>0.02</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F276" s="7" t="s">
-        <v>267</v>
+        <v>397</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -9185,19 +9190,19 @@
         <v>198</v>
       </c>
       <c r="B277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D277" s="4">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="F277" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -9208,10 +9213,10 @@
         <v>0</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D278" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>397</v>
@@ -9222,16 +9227,19 @@
         <v>198</v>
       </c>
       <c r="B279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D279" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>397</v>
+        <v>154</v>
+      </c>
+      <c r="F279" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -9239,19 +9247,16 @@
         <v>198</v>
       </c>
       <c r="B280">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D280" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F280" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -9259,13 +9264,13 @@
         <v>198</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D281" s="4">
-        <v>3.3E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>397</v>
@@ -9276,19 +9281,16 @@
         <v>198</v>
       </c>
       <c r="B282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D282" s="4">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F282" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -9296,13 +9298,13 @@
         <v>198</v>
       </c>
       <c r="B283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D283" s="4">
-        <v>3.3E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>397</v>
@@ -9313,10 +9315,10 @@
         <v>198</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D284" s="4">
         <v>5.0000000000000001E-3</v>
@@ -9333,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D285" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>397</v>
@@ -9347,16 +9349,22 @@
         <v>198</v>
       </c>
       <c r="B286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D286" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>397</v>
+        <v>154</v>
+      </c>
+      <c r="F286" t="s">
+        <v>412</v>
+      </c>
+      <c r="G286" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -9364,13 +9372,13 @@
         <v>198</v>
       </c>
       <c r="B287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D287" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>397</v>
@@ -9381,113 +9389,110 @@
         <v>198</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D288" s="4">
         <v>0.01</v>
       </c>
       <c r="E288" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F288" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D289" s="4">
+        <v>3.3E-4</v>
+      </c>
+      <c r="E289" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D289" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F289" t="s">
-        <v>412</v>
-      </c>
-      <c r="G289" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D290" s="4">
-        <v>3.3E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B291">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D291" s="4">
         <v>0.01</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F291" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D292" s="4">
-        <v>3.3E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="293" spans="1:7">
+      <c r="F292" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B293">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>287</v>
+        <v>415</v>
       </c>
       <c r="D293" s="4">
-        <v>8.0000000000000002E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:6">
       <c r="A294" s="1" t="s">
         <v>198</v>
       </c>
@@ -9495,81 +9500,81 @@
         <v>0</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
       <c r="D294" s="4">
         <v>0.01</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>154</v>
+      </c>
+      <c r="F294" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D295" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F295" t="s">
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B296">
+        <v>2</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D296" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F296" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B296">
-        <v>0</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D296" s="4">
+    <row r="297" spans="1:6">
+      <c r="A297" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D297" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="E296" s="4" t="s">
+      <c r="E297" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
-      <c r="A297" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D297" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E297" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F297" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:6">
       <c r="A298" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D298" s="4">
         <v>3.3E-3</v>
@@ -9578,7 +9583,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:6">
       <c r="A299" s="1" t="s">
         <v>198</v>
       </c>
@@ -9586,19 +9591,16 @@
         <v>2</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D299" s="4">
-        <v>1E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E299" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F299" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
         <v>198</v>
       </c>
@@ -9606,129 +9608,132 @@
         <v>0</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D300" s="4">
-        <v>3.3E-3</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>0.01</v>
+      </c>
+      <c r="E300" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D301" s="4">
-        <v>3.3E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D302" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E302" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D303" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="E302" s="4" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D303" s="4">
+      <c r="E303" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D304" s="4">
         <v>0.01</v>
-      </c>
-      <c r="E303" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D304" s="4">
-        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>397</v>
       </c>
+      <c r="F304" s="9"/>
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>297</v>
+        <v>416</v>
       </c>
       <c r="D305" s="4">
         <v>0.01</v>
       </c>
-      <c r="E305" t="s">
-        <v>290</v>
-      </c>
+      <c r="E305" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F305" s="9"/>
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="B306">
         <v>0</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>557</v>
+        <v>417</v>
       </c>
       <c r="D306" s="4">
         <v>3.3E-3</v>
       </c>
-      <c r="E306" t="s">
-        <v>403</v>
-      </c>
+      <c r="E306" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F306" s="9"/>
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>305</v>
+        <v>417</v>
       </c>
       <c r="D307" s="4">
-        <v>0.01</v>
+        <v>3.3E-3</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>397</v>
@@ -9740,64 +9745,61 @@
         <v>198</v>
       </c>
       <c r="B308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D308" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E308" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F308" s="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="E308" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D309" s="4">
-        <v>3.3E-3</v>
-      </c>
-      <c r="E309" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F309" s="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="E309" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>417</v>
+        <v>557</v>
       </c>
       <c r="D310" s="4">
-        <v>3.3E-3</v>
-      </c>
-      <c r="E310" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F310" s="9"/>
+        <v>0.05</v>
+      </c>
+      <c r="E310" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B311">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>418</v>
+        <v>557</v>
       </c>
       <c r="D311" s="4">
         <v>0.05</v>
@@ -9811,16 +9813,16 @@
         <v>198</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D312" s="4">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E312" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -9828,16 +9830,16 @@
         <v>198</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>558</v>
+        <v>419</v>
       </c>
       <c r="D313" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E313" t="s">
-        <v>296</v>
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E313" s="8" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -9845,16 +9847,16 @@
         <v>198</v>
       </c>
       <c r="B314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>558</v>
+        <v>419</v>
       </c>
       <c r="D314" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E314" t="s">
-        <v>296</v>
+        <v>1.67E-2</v>
+      </c>
+      <c r="E314" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9868,10 +9870,10 @@
         <v>419</v>
       </c>
       <c r="D315" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E315" t="s">
-        <v>261</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9882,16 +9884,19 @@
         <v>1</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D316" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E316" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>0.01</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G316" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="55.2">
       <c r="A317" s="1" t="s">
         <v>198</v>
       </c>
@@ -9899,13 +9904,13 @@
         <v>1</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D317" s="4">
-        <v>1.67E-2</v>
-      </c>
-      <c r="E317" s="8" t="s">
-        <v>300</v>
+        <v>0.03</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9916,13 +9921,13 @@
         <v>1</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D318" s="4">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>302</v>
+        <v>0.03</v>
+      </c>
+      <c r="E318" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9930,110 +9935,65 @@
         <v>198</v>
       </c>
       <c r="B319">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D319" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="G319" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" ht="55.2">
-      <c r="A320" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B320">
-        <v>1</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D320" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E320" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B321">
-        <v>1</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D321" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E321" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-      <c r="C322" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="320" spans="1:7">
+      <c r="A320" s="1"/>
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1"/>
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1"/>
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:3">
       <c r="A324" s="1"/>
-      <c r="C324" s="1"/>
-    </row>
-    <row r="325" spans="1:5">
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" s="1"/>
-      <c r="C325" s="1"/>
-    </row>
-    <row r="326" spans="1:5">
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" s="1"/>
-      <c r="C326" s="1"/>
-    </row>
-    <row r="327" spans="1:5">
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" s="1"/>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:3">
       <c r="A328" s="1"/>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:3">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:3">
       <c r="A330" s="1"/>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:3">
       <c r="A331" s="1"/>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:3">
       <c r="A332" s="1"/>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:3">
       <c r="A333" s="1"/>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:3">
       <c r="A334" s="1"/>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:3">
       <c r="A335" s="1"/>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:3">
       <c r="A336" s="1"/>
     </row>
     <row r="337" spans="1:1">
@@ -10084,17 +10044,8 @@
     <row r="352" spans="1:1">
       <c r="A352" s="1"/>
     </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K321" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}"/>
+  <autoFilter ref="A1:K318" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}"/>
   <mergeCells count="5">
     <mergeCell ref="G167:G168"/>
     <mergeCell ref="G165:G166"/>
@@ -10119,10 +10070,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
-  <dimension ref="A1:H126"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -10154,7 +10106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -10174,7 +10126,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -10194,7 +10146,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -10214,7 +10166,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -10234,7 +10186,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -10254,7 +10206,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
@@ -10274,7 +10226,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -10294,7 +10246,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -10315,12 +10267,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B10">
-        <f t="shared" ref="B10:B87" si="0">E10</f>
+        <f t="shared" ref="B10:B86" si="0">E10</f>
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -10336,7 +10288,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -10357,7 +10309,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -10378,7 +10330,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
@@ -10399,7 +10351,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -10420,7 +10372,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -10441,7 +10393,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -10462,7 +10414,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -10483,7 +10435,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -10504,7 +10456,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" hidden="1">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -10525,7 +10477,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -10546,7 +10498,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -10567,7 +10519,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" hidden="1">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -10587,7 +10539,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -10607,7 +10559,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -10628,7 +10580,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -10648,7 +10600,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -10668,7 +10620,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -10689,7 +10641,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -10709,7 +10661,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -10729,7 +10681,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -10749,7 +10701,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -10769,7 +10721,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -10789,7 +10741,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -10809,7 +10761,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" hidden="1">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -10929,7 +10881,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
@@ -10949,7 +10901,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -10969,7 +10921,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" s="1" t="s">
         <v>8</v>
       </c>
@@ -10989,7 +10941,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
@@ -11009,7 +10961,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" s="1" t="s">
         <v>8</v>
       </c>
@@ -11071,7 +11023,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="A47" s="1" t="s">
         <v>8</v>
       </c>
@@ -11112,7 +11064,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="1" t="s">
         <v>8</v>
       </c>
@@ -11195,7 +11147,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -11216,7 +11168,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
@@ -11236,7 +11188,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -11256,7 +11208,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -11276,7 +11228,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -11297,7 +11249,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
@@ -11318,7 +11270,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -11339,7 +11291,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -11360,7 +11312,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
@@ -11381,7 +11333,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
@@ -11402,28 +11354,28 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63" si="2">E63</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="1">
-        <v>1</v>
+        <v>461</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
@@ -11432,10 +11384,10 @@
         <v>0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -11444,7 +11396,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
@@ -11453,10 +11405,10 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -11465,7 +11417,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" s="1" t="s">
         <v>116</v>
       </c>
@@ -11474,190 +11426,193 @@
         <v>0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="s">
-        <v>463</v>
+        <v>84</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>425</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>427</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1">
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>85</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1">
+      <c r="A71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>426</v>
-      </c>
-      <c r="E69" s="1">
+      <c r="C71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71">
         <v>2</v>
       </c>
-      <c r="F69" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>427</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
       <c r="F71" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B72">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B73">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>2</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>89</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>360</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B75">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="B75:B76" si="2">E75</f>
+        <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>15</v>
@@ -11666,7 +11621,7 @@
         <v>89</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>360</v>
@@ -11675,13 +11630,13 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:B77" si="3">E76</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>15</v>
@@ -11690,7 +11645,7 @@
         <v>89</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>360</v>
@@ -11699,57 +11654,53 @@
         <v>359</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B77">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
-      </c>
-      <c r="E77" s="1">
-        <v>2</v>
+        <v>464</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>360</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B78">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>464</v>
-      </c>
-      <c r="E78">
+        <v>428</v>
+      </c>
+      <c r="E78" s="1">
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>17</v>
@@ -11758,138 +11709,139 @@
         <v>428</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>428</v>
-      </c>
-      <c r="E80" s="1">
-        <v>1</v>
+        <v>429</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
       </c>
       <c r="F80" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B82">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>430</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
+        <v>431</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
       </c>
       <c r="F82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B83">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="B83" si="3">E83</f>
+        <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
         <v>431</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B84">
-        <f t="shared" ref="B84" si="4">E84</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>431</v>
-      </c>
-      <c r="E84" s="1">
-        <v>1</v>
-      </c>
-      <c r="F84" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B85">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>93</v>
+        <v>558</v>
       </c>
       <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="1" t="s">
         <v>116</v>
       </c>
@@ -11898,31 +11850,31 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>559</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>432</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" s="1" t="s">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="B87">
-        <f t="shared" si="0"/>
+        <f>E87</f>
         <v>0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>64</v>
+        <v>264</v>
       </c>
       <c r="D87" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -11931,40 +11883,40 @@
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B88">
-        <f>E88</f>
-        <v>0</v>
+        <f t="shared" ref="B88:B91" si="4">E88</f>
+        <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="D88" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" hidden="1">
       <c r="A89" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B89">
-        <f t="shared" ref="B89:B92" si="5">E89</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D89" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
@@ -11973,250 +11925,250 @@
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B90">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>E90</f>
+        <v>0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D90" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" hidden="1">
       <c r="A91" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B91">
-        <f>E91</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D91" t="s">
         <v>436</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="1" t="s">
-        <v>399</v>
+        <v>116</v>
       </c>
       <c r="B92">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>E92</f>
+        <v>0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="D92" t="s">
-        <v>436</v>
-      </c>
-      <c r="E92" s="1">
-        <v>1</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>437</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B93">
-        <f>E93</f>
-        <v>0</v>
+        <f t="shared" ref="B93:B125" si="5">E93</f>
+        <v>1</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D93" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B94">
-        <f t="shared" ref="B94:B126" si="6">E94</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B95">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>278</v>
       </c>
       <c r="D95" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B96">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" t="s">
+        <v>441</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="13" customFormat="1" hidden="1">
+      <c r="A97" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="13">
+        <f t="shared" ref="B97:B99" si="6">E97</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="E97" s="13">
+        <v>0</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="13" customFormat="1" hidden="1">
+      <c r="A98" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="13">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D96" t="s">
-        <v>440</v>
-      </c>
-      <c r="E96">
-        <v>2</v>
-      </c>
-      <c r="F96" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D97" t="s">
-        <v>441</v>
-      </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="13" customFormat="1">
-      <c r="A98" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="13">
-        <f t="shared" ref="B98:B100" si="7">E98</f>
-        <v>0</v>
-      </c>
       <c r="C98" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E98" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="13" customFormat="1">
+    <row r="99" spans="1:6" s="13" customFormat="1" hidden="1">
       <c r="A99" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B99" s="13">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="C99" s="36" t="s">
         <v>279</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E99" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="13" customFormat="1">
-      <c r="A100" s="36" t="s">
+    <row r="100" spans="1:6" hidden="1">
+      <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B100" s="13">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="E100" s="13">
-        <v>1</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" t="s">
+        <v>465</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -12225,19 +12177,19 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -12246,181 +12198,181 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B103">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B105">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D105" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E105">
-        <v>2</v>
-      </c>
-      <c r="F105" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B106">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B107">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B108">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>289</v>
+        <v>415</v>
       </c>
       <c r="D108" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B109">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>415</v>
+        <v>293</v>
       </c>
       <c r="D109" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F109" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B110">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D110" t="s">
-        <v>448</v>
-      </c>
-      <c r="E110">
-        <v>2</v>
+        <v>449</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
       </c>
       <c r="F110" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B111">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>294</v>
@@ -12429,19 +12381,19 @@
         <v>449</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" hidden="1">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B112">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>294</v>
@@ -12450,46 +12402,46 @@
         <v>449</v>
       </c>
       <c r="E112" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B113">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D113" t="s">
-        <v>449</v>
-      </c>
-      <c r="E113" s="1">
-        <v>2</v>
-      </c>
-      <c r="F113" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>450</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" hidden="1">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D114" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -12498,97 +12450,97 @@
         <v>405</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="1" t="s">
+    <row r="115" spans="1:8" s="13" customFormat="1" hidden="1">
+      <c r="A115" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B115">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D115" t="s">
-        <v>451</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115" s="15" t="s">
+      <c r="B115" s="13">
+        <f t="shared" ref="B115" si="7">E115</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="E115" s="13">
+        <v>0</v>
+      </c>
+      <c r="F115" s="37" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="13" customFormat="1">
-      <c r="A116" s="36" t="s">
+    <row r="116" spans="1:8" hidden="1">
+      <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B116" s="13">
-        <f t="shared" ref="B116" si="8">E116</f>
-        <v>0</v>
-      </c>
-      <c r="C116" s="36" t="s">
-        <v>557</v>
-      </c>
-      <c r="D116" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="E116" s="13">
-        <v>0</v>
-      </c>
-      <c r="F116" s="37" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="B116">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D116" t="s">
+        <v>452</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" hidden="1">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="D117" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B118">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D118" t="s">
-        <v>453</v>
-      </c>
-      <c r="E118">
-        <v>2</v>
-      </c>
-      <c r="F118" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>454</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" hidden="1">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B119">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>417</v>
@@ -12597,199 +12549,192 @@
         <v>454</v>
       </c>
       <c r="E119" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B120">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D120" t="s">
-        <v>454</v>
+        <v>418</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>552</v>
       </c>
       <c r="E120" s="1">
-        <v>2</v>
-      </c>
-      <c r="F120" s="15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>0</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="H120" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" hidden="1">
       <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B121">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="B121" si="8">E121</f>
+        <v>2</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
-      </c>
-      <c r="F121" s="25" t="s">
-        <v>550</v>
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
+        <v>375</v>
       </c>
       <c r="H121" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="1" t="s">
+    <row r="122" spans="1:8" s="13" customFormat="1" hidden="1">
+      <c r="A122" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B122">
-        <f t="shared" ref="B122" si="9">E122</f>
-        <v>2</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>419</v>
+      <c r="B122" s="13">
+        <v>0</v>
+      </c>
+      <c r="C122" s="36" t="s">
+        <v>557</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="E122" s="1">
-        <v>2</v>
-      </c>
-      <c r="F122" t="s">
-        <v>375</v>
-      </c>
-      <c r="H122" t="s">
+        <v>553</v>
+      </c>
+      <c r="E122" s="36">
+        <v>0</v>
+      </c>
+      <c r="F122" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="H122" s="13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="13" customFormat="1">
+    <row r="123" spans="1:8" s="13" customFormat="1" hidden="1">
       <c r="A123" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B123" s="13">
-        <v>0</v>
+        <f t="shared" ref="B123" si="9">E123</f>
+        <v>2</v>
       </c>
       <c r="C123" s="36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E123" s="36">
-        <v>0</v>
-      </c>
-      <c r="F123" s="37" t="s">
-        <v>550</v>
+        <v>2</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="H123" s="13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="13" customFormat="1">
-      <c r="A124" s="36" t="s">
+    <row r="124" spans="1:8" hidden="1">
+      <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B124" s="13">
-        <f t="shared" ref="B124" si="10">E124</f>
-        <v>2</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>558</v>
+      <c r="B124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>554</v>
-      </c>
-      <c r="E124" s="36">
-        <v>2</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>551</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="G124" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" hidden="1">
       <c r="A125" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>552</v>
+        <v>545</v>
+      </c>
+      <c r="D125" t="s">
+        <v>115</v>
       </c>
       <c r="E125">
         <v>1</v>
       </c>
       <c r="F125" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="G125" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D126" t="s">
-        <v>115</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
-      </c>
-      <c r="F126" s="25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H125" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="013"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F45" r:id="rId1" xr:uid="{7EAD06CF-C6D7-407B-97AE-FD251B7D10C3}"/>
     <hyperlink ref="F46" r:id="rId2" xr:uid="{5BDBA908-8772-40A5-BEED-D3F5C1BE8F01}"/>
-    <hyperlink ref="F68" r:id="rId3" xr:uid="{6303732C-E7DB-4F15-A0E5-13F5ABD4DD49}"/>
-    <hyperlink ref="F87" r:id="rId4" xr:uid="{3C42EE84-2C16-4A4D-B4BF-74BEF21C0747}"/>
-    <hyperlink ref="F88:F92" r:id="rId5" display="https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/C_CHT.html" xr:uid="{88844200-62CB-43A0-99CD-2BBFC45E2503}"/>
-    <hyperlink ref="F85" r:id="rId6" xr:uid="{01F18CED-00E4-4E32-A5DA-5D8D7DF0F5C1}"/>
-    <hyperlink ref="F93" r:id="rId7" xr:uid="{9A27F726-91E7-47F1-B1C8-4BC8652E37DF}"/>
-    <hyperlink ref="F114" r:id="rId8" xr:uid="{117D9651-3474-4C91-B395-38A4D7CC42C4}"/>
-    <hyperlink ref="F119" r:id="rId9" xr:uid="{3B271E89-4666-4104-84BA-B6D400B76763}"/>
-    <hyperlink ref="F120" r:id="rId10" xr:uid="{0FC2ACE6-4DF6-41A3-BA4A-5E8AED19BF57}"/>
+    <hyperlink ref="F67" r:id="rId3" xr:uid="{6303732C-E7DB-4F15-A0E5-13F5ABD4DD49}"/>
+    <hyperlink ref="F86" r:id="rId4" xr:uid="{3C42EE84-2C16-4A4D-B4BF-74BEF21C0747}"/>
+    <hyperlink ref="F87:F91" r:id="rId5" display="https://www.ctbcbank.com/twrbo/zh_tw/cc_index/cc_product/cc_introduction_index/C_CHT.html" xr:uid="{88844200-62CB-43A0-99CD-2BBFC45E2503}"/>
+    <hyperlink ref="F84" r:id="rId6" xr:uid="{01F18CED-00E4-4E32-A5DA-5D8D7DF0F5C1}"/>
+    <hyperlink ref="F92" r:id="rId7" xr:uid="{9A27F726-91E7-47F1-B1C8-4BC8652E37DF}"/>
+    <hyperlink ref="F113" r:id="rId8" xr:uid="{117D9651-3474-4C91-B395-38A4D7CC42C4}"/>
+    <hyperlink ref="F118" r:id="rId9" xr:uid="{3B271E89-4666-4104-84BA-B6D400B76763}"/>
+    <hyperlink ref="F119" r:id="rId10" xr:uid="{0FC2ACE6-4DF6-41A3-BA4A-5E8AED19BF57}"/>
     <hyperlink ref="F11" r:id="rId11" xr:uid="{0B044A07-843B-44ED-A0A9-4A96CD8536AC}"/>
-    <hyperlink ref="F104" r:id="rId12" xr:uid="{FEA781BC-74D2-42F5-BD31-0707F2F9F58B}"/>
+    <hyperlink ref="F103" r:id="rId12" xr:uid="{FEA781BC-74D2-42F5-BD31-0707F2F9F58B}"/>
     <hyperlink ref="F60" r:id="rId13" xr:uid="{D3A332EF-1BCE-429A-B3F5-2CBFE6AAADB1}"/>
     <hyperlink ref="F7" r:id="rId14" xr:uid="{E0FC0141-1FCA-455F-8D28-99E354C42676}"/>
     <hyperlink ref="F50" r:id="rId15" xr:uid="{5D210845-9E11-42FB-AA36-5344ECA0178E}"/>
-    <hyperlink ref="F63" r:id="rId16" xr:uid="{1151544F-F6D7-4D8B-9D9D-2A23214F5770}"/>
-    <hyperlink ref="F74" r:id="rId17" xr:uid="{DAB371C5-AE95-46D5-B728-4C33CE9DCD2E}"/>
-    <hyperlink ref="F126" r:id="rId18" xr:uid="{0FB798B6-6514-4691-8B2A-1DE8DFF4B360}"/>
-    <hyperlink ref="F121" r:id="rId19" xr:uid="{E0C7C516-A070-4DFF-A7C5-2A730E4F95A7}"/>
-    <hyperlink ref="F125" r:id="rId20" xr:uid="{15F660F3-9623-433D-920A-1390EC5AE434}"/>
-    <hyperlink ref="F115" r:id="rId21" xr:uid="{0B1837C7-5130-4945-AEDC-53A77B309C3B}"/>
-    <hyperlink ref="F123" r:id="rId22" xr:uid="{DDA6DE81-EF8B-4559-9099-B59A8F7241BE}"/>
-    <hyperlink ref="F116" r:id="rId23" xr:uid="{6F54FA40-6C60-49C0-A1B3-D7068062B4C0}"/>
+    <hyperlink ref="F73" r:id="rId16" xr:uid="{DAB371C5-AE95-46D5-B728-4C33CE9DCD2E}"/>
+    <hyperlink ref="F125" r:id="rId17" xr:uid="{0FB798B6-6514-4691-8B2A-1DE8DFF4B360}"/>
+    <hyperlink ref="F120" r:id="rId18" xr:uid="{E0C7C516-A070-4DFF-A7C5-2A730E4F95A7}"/>
+    <hyperlink ref="F124" r:id="rId19" xr:uid="{15F660F3-9623-433D-920A-1390EC5AE434}"/>
+    <hyperlink ref="F114" r:id="rId20" xr:uid="{0B1837C7-5130-4945-AEDC-53A77B309C3B}"/>
+    <hyperlink ref="F122" r:id="rId21" xr:uid="{DDA6DE81-EF8B-4559-9099-B59A8F7241BE}"/>
+    <hyperlink ref="F115" r:id="rId22" xr:uid="{6F54FA40-6C60-49C0-A1B3-D7068062B4C0}"/>
+    <hyperlink ref="F105" r:id="rId23" xr:uid="{603261CC-86A6-474B-AB2A-BC362D2163C3}"/>
+    <hyperlink ref="F106" r:id="rId24" xr:uid="{09F4389A-268B-4D00-B3DA-3802F31CED24}"/>
+    <hyperlink ref="F63" r:id="rId25" xr:uid="{312128BA-7E29-4D41-B0AC-96A38CFD89A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大學專題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Ucard\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615A6667-2274-4638-B37A-A9D42C9CECCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87BABE-995F-46F8-BAE7-5F686EEC505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -4187,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:XFD176"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1" t="s">
-        <v>198</v>
+        <v>116</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B157">
         <v>2</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="B158">
         <v>2</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7140,7 +7140,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7192,7 +7192,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -7212,7 +7212,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -7268,7 +7268,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -7302,7 +7302,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -7340,7 +7340,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -7383,7 +7383,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -7404,7 +7404,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -7424,7 +7424,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -7475,7 +7475,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -7597,7 +7597,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -7614,7 +7614,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -7631,7 +7631,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -7682,7 +7682,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -7699,7 +7699,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -7767,7 +7767,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -7784,7 +7784,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -7801,7 +7801,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -7818,7 +7818,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -7852,7 +7852,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -7869,7 +7869,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -7886,7 +7886,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -7937,7 +7937,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -7954,7 +7954,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -7971,7 +7971,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B211">
         <v>2</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -8039,7 +8039,7 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B213">
         <v>2</v>
@@ -8056,7 +8056,7 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -8073,7 +8073,7 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -8124,7 +8124,7 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -8141,7 +8141,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -8158,7 +8158,7 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -8175,7 +8175,7 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -8192,7 +8192,7 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -8226,7 +8226,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="225" spans="1:6" ht="15.6" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -8260,7 +8260,7 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -8277,7 +8277,7 @@
     </row>
     <row r="227" spans="1:6">
       <c r="A227" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="228" spans="1:6">
       <c r="A228" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="229" spans="1:6">
       <c r="A229" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="230" spans="1:6">
       <c r="A230" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -8345,7 +8345,7 @@
     </row>
     <row r="231" spans="1:6">
       <c r="A231" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -8365,7 +8365,7 @@
     </row>
     <row r="232" spans="1:6">
       <c r="A232" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="233" spans="1:6">
       <c r="A233" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -8399,7 +8399,7 @@
     </row>
     <row r="234" spans="1:6">
       <c r="A234" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -8416,7 +8416,7 @@
     </row>
     <row r="235" spans="1:6">
       <c r="A235" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -8436,7 +8436,7 @@
     </row>
     <row r="236" spans="1:6">
       <c r="A236" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="237" spans="1:6">
       <c r="A237" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="238" spans="1:6">
       <c r="A238" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -8487,7 +8487,7 @@
     </row>
     <row r="239" spans="1:6">
       <c r="A239" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -8507,7 +8507,7 @@
     </row>
     <row r="240" spans="1:6">
       <c r="A240" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="241" spans="1:6">
       <c r="A241" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -8541,7 +8541,7 @@
     </row>
     <row r="242" spans="1:6">
       <c r="A242" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="243" spans="1:6">
       <c r="A243" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="244" spans="1:6">
       <c r="A244" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -8595,7 +8595,7 @@
     </row>
     <row r="245" spans="1:6">
       <c r="A245" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="246" spans="1:6">
       <c r="A246" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="247" spans="1:6">
       <c r="A247" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="248" spans="1:6">
       <c r="A248" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="249" spans="1:6">
       <c r="A249" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="250" spans="1:6">
       <c r="A250" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -8706,7 +8706,7 @@
     </row>
     <row r="251" spans="1:6">
       <c r="A251" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="253" spans="1:6">
       <c r="A253" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="254" spans="1:6">
       <c r="A254" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="255" spans="1:6">
       <c r="A255" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -8797,7 +8797,7 @@
     </row>
     <row r="256" spans="1:6">
       <c r="A256" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -8814,7 +8814,7 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -8854,7 +8854,7 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -8871,7 +8871,7 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -8908,7 +8908,7 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -8982,7 +8982,7 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -9002,7 +9002,7 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -9036,7 +9036,7 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -9096,7 +9096,7 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -9133,7 +9133,7 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -9170,7 +9170,7 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B280">
         <v>2</v>
@@ -9261,7 +9261,7 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -9278,7 +9278,7 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B284">
         <v>2</v>
@@ -9329,7 +9329,7 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -9406,7 +9406,7 @@
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -9423,7 +9423,7 @@
     </row>
     <row r="290" spans="1:6">
       <c r="A290" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -9477,7 +9477,7 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -9494,7 +9494,7 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -9514,7 +9514,7 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B295">
         <v>2</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B296">
         <v>2</v>
@@ -9551,7 +9551,7 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -9568,7 +9568,7 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -9585,7 +9585,7 @@
     </row>
     <row r="299" spans="1:6">
       <c r="A299" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -9602,7 +9602,7 @@
     </row>
     <row r="300" spans="1:6">
       <c r="A300" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -9619,7 +9619,7 @@
     </row>
     <row r="301" spans="1:6">
       <c r="A301" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -9636,7 +9636,7 @@
     </row>
     <row r="302" spans="1:6">
       <c r="A302" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -9653,7 +9653,7 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" s="1" t="s">
-        <v>116</v>
+        <v>399</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -9670,7 +9670,7 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="1" t="s">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -9688,7 +9688,7 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -9706,7 +9706,7 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -9724,7 +9724,7 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B307">
         <v>2</v>
@@ -9742,7 +9742,7 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B309">
         <v>2</v>
@@ -9776,7 +9776,7 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -9827,7 +9827,7 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -9844,7 +9844,7 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -9861,7 +9861,7 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -9878,7 +9878,7 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -9898,7 +9898,7 @@
     </row>
     <row r="317" spans="1:7" ht="55.2">
       <c r="A317" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -9915,7 +9915,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -9932,7 +9932,7 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1" t="s">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -10073,7 +10073,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>

--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Ucard\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC87BABE-995F-46F8-BAE7-5F686EEC505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFA0356-D6CB-4271-AE51-96FF5B355702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -4187,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C256" sqref="C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -10073,8 +10073,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -10781,7 +10781,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" s="1" t="s">
         <v>8</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.6" customHeight="1">
+    <row r="50" spans="1:6" ht="15.6" hidden="1" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.6" customHeight="1">
+    <row r="51" spans="1:6" ht="15.6" hidden="1" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -11126,7 +11126,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.6" customHeight="1">
+    <row r="52" spans="1:6" ht="15.6" hidden="1" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>116</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>116</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>116</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>116</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>116</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>116</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
         <v>116</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
         <v>116</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
         <v>116</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
         <v>116</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
         <v>116</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
         <v>116</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
         <v>116</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
         <v>116</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
         <v>116</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
         <v>116</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
         <v>116</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
         <v>116</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
         <v>116</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1">
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
         <v>116</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>116</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="D82" t="s">
         <v>431</v>
@@ -11778,7 +11778,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1">
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
         <v>116</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1">
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1">
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1">
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
         <v>116</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1">
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
         <v>399</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1">
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
         <v>399</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1">
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
         <v>399</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1">
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
         <v>399</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1">
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
         <v>399</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="D91" t="s">
         <v>436</v>
@@ -11967,7 +11967,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1">
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
         <v>116</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1">
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>116</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1">
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>116</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1">
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1">
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
@@ -12072,7 +12072,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="13" customFormat="1" hidden="1">
+    <row r="97" spans="1:6" s="13" customFormat="1">
       <c r="A97" s="36" t="s">
         <v>116</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="13" customFormat="1" hidden="1">
+    <row r="98" spans="1:6" s="13" customFormat="1">
       <c r="A98" s="36" t="s">
         <v>116</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="13" customFormat="1" hidden="1">
+    <row r="99" spans="1:6" s="13" customFormat="1">
       <c r="A99" s="36" t="s">
         <v>116</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>116</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>116</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1">
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1">
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
         <v>116</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1">
+    <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
         <v>116</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1">
+    <row r="106" spans="1:6">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1">
+    <row r="107" spans="1:6">
       <c r="A107" s="1" t="s">
         <v>116</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1">
+    <row r="108" spans="1:6">
       <c r="A108" s="1" t="s">
         <v>116</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1">
+    <row r="109" spans="1:6">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1">
+    <row r="110" spans="1:6">
       <c r="A110" s="1" t="s">
         <v>116</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1">
+    <row r="111" spans="1:6">
       <c r="A111" s="1" t="s">
         <v>116</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1">
+    <row r="112" spans="1:6">
       <c r="A112" s="1" t="s">
         <v>116</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1">
+    <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1">
+    <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="13" customFormat="1" hidden="1">
+    <row r="115" spans="1:8" s="13" customFormat="1">
       <c r="A115" s="36" t="s">
         <v>116</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1">
+    <row r="116" spans="1:8">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1">
+    <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1">
+    <row r="118" spans="1:8">
       <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
@@ -12534,7 +12534,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1">
+    <row r="119" spans="1:8">
       <c r="A119" s="1" t="s">
         <v>116</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1">
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
         <v>116</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1">
+    <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
         <v>116</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="13" customFormat="1" hidden="1">
+    <row r="122" spans="1:8" s="13" customFormat="1">
       <c r="A122" s="36" t="s">
         <v>116</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="13" customFormat="1" hidden="1">
+    <row r="123" spans="1:8" s="13" customFormat="1">
       <c r="A123" s="36" t="s">
         <v>116</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1">
+    <row r="124" spans="1:8">
       <c r="A124" s="1" t="s">
         <v>116</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1">
+    <row r="125" spans="1:8">
       <c r="A125" s="1" t="s">
         <v>116</v>
       </c>
@@ -12699,12 +12699,7 @@
   <autoFilter ref="A1:H125" xr:uid="{E751BC99-5B3C-4417-82AF-67B1E1EF6F0B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="013"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="1"/>
+        <filter val="822"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/資料庫資料/資料庫資料整理V3.xlsx
+++ b/資料庫資料/資料庫資料整理V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Ucard\資料庫資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFA0356-D6CB-4271-AE51-96FF5B355702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F41BC0-71A4-4448-BFFE-15996DC4F51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{93F3BD4A-EB01-45C0-8F82-750E05A53095}"/>
   </bookViews>
   <sheets>
     <sheet name="長期" sheetId="1" r:id="rId1"/>
@@ -4187,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC206D-4004-4B57-89A6-E2BE3924ED81}">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C256" sqref="C256"/>
+    <sheetView tabSelected="1" topLeftCell="A265" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E282" sqref="E282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -10073,8 +10073,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -10082,7 +10082,8 @@
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="104" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
